--- a/Capacity_Planning/lib/CaseData.xlsx
+++ b/Capacity_Planning/lib/CaseData.xlsx
@@ -9,17 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Capacity" sheetId="1" r:id="rId1"/>
     <sheet name="Purchase Price from Supplier" sheetId="6" r:id="rId2"/>
     <sheet name="CIF from Supplier M1" sheetId="8" r:id="rId3"/>
     <sheet name="CIF from Supplier M2" sheetId="9" r:id="rId4"/>
-    <sheet name="Demand" sheetId="5" r:id="rId5"/>
-    <sheet name="Nations" sheetId="4" r:id="rId6"/>
-    <sheet name="Constant" sheetId="3" r:id="rId7"/>
-    <sheet name="Timing Model" sheetId="2" r:id="rId8"/>
+    <sheet name="CIF from Supplier M3" sheetId="10" r:id="rId5"/>
+    <sheet name="CIF from Supplier M4" sheetId="11" r:id="rId6"/>
+    <sheet name="CIF from Supplier M6" sheetId="12" r:id="rId7"/>
+    <sheet name="CIF from Supplier M7" sheetId="13" r:id="rId8"/>
+    <sheet name="CIF between facilities M5" sheetId="14" r:id="rId9"/>
+    <sheet name="Demand" sheetId="5" r:id="rId10"/>
+    <sheet name="Nations" sheetId="4" r:id="rId11"/>
+    <sheet name="Constant" sheetId="3" r:id="rId12"/>
+    <sheet name="Timing Model" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>facility f</t>
   </si>
@@ -84,12 +89,6 @@
     <t>Demand M8 Regular Market</t>
   </si>
   <si>
-    <t>Kommentar:</t>
-  </si>
-  <si>
-    <t>Max Demand im Monopol =50, teilt sich auf Customer zu Prozentanteilen auf, im Regular Markt gehen Bedarf unterschiedlich zurück, je nach Stärke der Wettbewerber</t>
-  </si>
-  <si>
     <t>Purchase Cost for M5</t>
   </si>
   <si>
@@ -100,6 +99,36 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Percentage of Monopoly Price</t>
+  </si>
+  <si>
+    <t>Percentage of Overall Demand</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>facilities from</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -678,7 +707,7 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="G9">
-        <f>0.6*F9</f>
+        <f t="shared" ref="G9:G18" si="1">0.6*F9</f>
         <v>0.61499999999999988</v>
       </c>
       <c r="H9">
@@ -705,7 +734,7 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="G10">
-        <f>0.6*F10</f>
+        <f t="shared" si="1"/>
         <v>0.61499999999999988</v>
       </c>
       <c r="H10">
@@ -732,7 +761,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="G11">
-        <f>0.6*F11</f>
+        <f t="shared" si="1"/>
         <v>0.49499999999999994</v>
       </c>
       <c r="H11">
@@ -759,7 +788,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G12">
-        <f>0.6*F12</f>
+        <f t="shared" si="1"/>
         <v>0.34799999999999998</v>
       </c>
       <c r="H12">
@@ -786,7 +815,7 @@
         <v>0.95599999999999996</v>
       </c>
       <c r="G13">
-        <f>0.6*F13</f>
+        <f t="shared" si="1"/>
         <v>0.5736</v>
       </c>
       <c r="H13">
@@ -813,7 +842,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G14">
-        <f>0.6*F14</f>
+        <f t="shared" si="1"/>
         <v>0.34799999999999998</v>
       </c>
       <c r="H14">
@@ -840,7 +869,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="G15">
-        <f>0.6*F15</f>
+        <f t="shared" si="1"/>
         <v>0.49499999999999994</v>
       </c>
       <c r="H15">
@@ -867,7 +896,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="G16">
-        <f>0.6*F16</f>
+        <f t="shared" si="1"/>
         <v>0.54900000000000004</v>
       </c>
       <c r="H16">
@@ -894,7 +923,7 @@
         <v>0.72</v>
       </c>
       <c r="G17">
-        <f>0.6*F17</f>
+        <f t="shared" si="1"/>
         <v>0.432</v>
       </c>
       <c r="H17">
@@ -921,7 +950,7 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="G18">
-        <f>0.6*F18</f>
+        <f t="shared" si="1"/>
         <v>0.34859999999999997</v>
       </c>
       <c r="H18">
@@ -1010,6 +1039,386 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <f>SUM(D3:D9)</f>
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="C3">
+        <f>B3*$C$1</f>
+        <v>12.5</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3*E3</f>
+        <v>8.75</v>
+      </c>
+      <c r="E3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C9" si="0">B4*$C$1</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D9" si="1">C4*E4</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.15</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>0.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1182,7 +1591,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1277,10 +1686,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1789,6 +2198,1839 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="J2">
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>0.6</v>
+      </c>
+      <c r="N2">
+        <v>0.6</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>1.6</v>
+      </c>
+      <c r="R2">
+        <v>1.6</v>
+      </c>
+      <c r="S2">
+        <v>1.3</v>
+      </c>
+      <c r="T2">
+        <v>1.3</v>
+      </c>
+      <c r="U2">
+        <v>1.7</v>
+      </c>
+      <c r="V2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>19</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>A4*$C$2</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>$A$5*C2</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4599999999999996E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4599999999999996E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12480000000000001</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12480000000000001</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1014</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1014</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1326</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>$A$6*C2</f>
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10450000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10450000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14250000000000002</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14250000000000002</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.649999999999999E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.649999999999999E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12350000000000001</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12350000000000001</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1615</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <f>$A$7*C2</f>
+        <v>4.24E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
+        <v>4.24E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8300000000000005E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8300000000000005E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7099999999999994E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7099999999999994E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1799999999999995E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1799999999999995E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.48E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.48E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="3"/>
+        <v>9.01E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="3"/>
+        <v>9.01E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f>$A$8*C2</f>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2800000000000007E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2800000000000007E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.6800000000000007E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.6800000000000007E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="4"/>
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="4"/>
+        <v>8.1600000000000006E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="J2">
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>0.6</v>
+      </c>
+      <c r="N2">
+        <v>0.6</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>1.6</v>
+      </c>
+      <c r="R2">
+        <v>1.6</v>
+      </c>
+      <c r="S2">
+        <v>1.3</v>
+      </c>
+      <c r="T2">
+        <v>1.3</v>
+      </c>
+      <c r="U2">
+        <v>1.7</v>
+      </c>
+      <c r="V2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>19</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>A4*$C$2</f>
+        <v>3.3600000000000005E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
+        <v>3.3600000000000005E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6200000000000005E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6200000000000005E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.52E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.52E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.78E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.78E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.720000000000001E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.720000000000001E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>$A$5*C2</f>
+        <v>4.4800000000000006E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
+        <v>4.4800000000000006E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1600000000000009E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1600000000000009E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.04E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.04E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9600000000000013E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9600000000000013E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5199999999999993E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>$A$6*C2</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3500000000000014E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3500000000000014E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1275</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1275</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6500000000000012E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6500000000000012E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11050000000000001</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11050000000000001</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14450000000000002</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14450000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <f>$A$7*C2</f>
+        <v>1.6800000000000002E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
+        <v>1.6800000000000002E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3100000000000002E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3100000000000002E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.15E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.15E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.47E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.47E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.26E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.26E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.89E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.89E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3600000000000005E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3600000000000005E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.105</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f>$A$8*C2</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1575</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1575</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17849999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="J2">
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>0.6</v>
+      </c>
+      <c r="N2">
+        <v>0.6</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>1.6</v>
+      </c>
+      <c r="R2">
+        <v>1.6</v>
+      </c>
+      <c r="S2">
+        <v>1.3</v>
+      </c>
+      <c r="T2">
+        <v>1.3</v>
+      </c>
+      <c r="U2">
+        <v>1.7</v>
+      </c>
+      <c r="V2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>19</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>A4*$C$2</f>
+        <v>5.04E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
+        <v>5.04E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.93E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.93E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.15E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.15E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.41E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.41E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.78E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.78E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.67E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.67E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1008</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1008</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1071</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>$A$5*C2</f>
+        <v>1.9200000000000002E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
+        <v>1.9200000000000002E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6400000000000003E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6400000000000003E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.44E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.44E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1200000000000002E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1200000000000002E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>$A$6*C2</f>
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10010000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10010000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.3699999999999993E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.3699999999999993E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.4599999999999996E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.4599999999999996E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1183</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1183</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1547</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <f>$A$7*C2</f>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2800000000000007E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2800000000000007E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6800000000000007E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6800000000000007E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f>$A$8*C2</f>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6100000000000004E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6100000000000004E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5699999999999996E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5699999999999996E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0599999999999995E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0599999999999995E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5899999999999996E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5899999999999996E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="4"/>
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="4"/>
+        <v>8.6699999999999985E-2</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="4"/>
+        <v>8.6699999999999985E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -1888,10 +4130,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1956,742 +4198,442 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2.5000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1">
         <f>A4*$C$2</f>
-        <v>2.0000000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>2.0000000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>2.7500000000000004E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>2.7500000000000004E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>3.7500000000000006E-2</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>3.7500000000000006E-2</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>1.7499999999999998E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>1.7499999999999998E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>2.2500000000000003E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>2.2500000000000003E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.12</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.12</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v>3.2500000000000001E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>3.2500000000000001E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>4.2500000000000003E-2</v>
+        <v>0.1275</v>
       </c>
       <c r="V4" s="1">
         <f t="shared" si="0"/>
-        <v>4.2500000000000003E-2</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7.8E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <f>$A$5*C2</f>
-        <v>6.2400000000000004E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>6.2400000000000004E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>8.5800000000000001E-2</v>
+        <v>5.8300000000000005E-2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>8.5800000000000001E-2</v>
+        <v>5.8300000000000005E-2</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>3.9E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>3.9E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>0.11699999999999999</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>0.11699999999999999</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>5.4599999999999996E-2</v>
+        <v>3.7099999999999994E-2</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>5.4599999999999996E-2</v>
+        <v>3.7099999999999994E-2</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>4.6800000000000001E-2</v>
+        <v>3.1799999999999995E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>4.6800000000000001E-2</v>
+        <v>3.1799999999999995E-2</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>7.0199999999999999E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>7.0199999999999999E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="1"/>
-        <v>0.12480000000000001</v>
+        <v>8.48E-2</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="1"/>
-        <v>0.12480000000000001</v>
+        <v>8.48E-2</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>0.1014</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="1"/>
-        <v>0.1014</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="1"/>
-        <v>0.1326</v>
+        <v>9.01E-2</v>
       </c>
       <c r="V5" s="1">
         <f t="shared" si="1"/>
-        <v>0.1326</v>
+        <v>9.01E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9.5000000000000001E-2</v>
+        <v>0.115</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="1">
         <f>$A$6*C2</f>
-        <v>7.6000000000000012E-2</v>
+        <v>9.2000000000000012E-2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>7.6000000000000012E-2</v>
+        <v>9.2000000000000012E-2</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>0.10450000000000001</v>
+        <v>0.12650000000000003</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>0.10450000000000001</v>
+        <v>0.12650000000000003</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>4.7500000000000001E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>4.7500000000000001E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>0.14250000000000002</v>
+        <v>0.17250000000000001</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>0.14250000000000002</v>
+        <v>0.17250000000000001</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>6.649999999999999E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>6.649999999999999E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>5.6999999999999995E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>5.6999999999999995E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>8.5500000000000007E-2</v>
+        <v>0.10350000000000001</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="2"/>
-        <v>8.5500000000000007E-2</v>
+        <v>0.10350000000000001</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>0.15200000000000002</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="2"/>
-        <v>0.15200000000000002</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="2"/>
-        <v>0.12350000000000001</v>
+        <v>0.14950000000000002</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="2"/>
-        <v>0.12350000000000001</v>
+        <v>0.14950000000000002</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="2"/>
-        <v>0.1615</v>
+        <v>0.19550000000000001</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="2"/>
-        <v>0.1615</v>
+        <v>0.19550000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5.2999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="1">
         <f>$A$7*C2</f>
-        <v>4.24E-2</v>
+        <v>4.9600000000000005E-2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>4.24E-2</v>
+        <v>4.9600000000000005E-2</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="3"/>
-        <v>5.8300000000000005E-2</v>
+        <v>6.8200000000000011E-2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="3"/>
-        <v>5.8300000000000005E-2</v>
+        <v>6.8200000000000011E-2</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>2.6499999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="3"/>
-        <v>2.6499999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>7.9500000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>7.9500000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>3.7099999999999994E-2</v>
+        <v>4.3399999999999994E-2</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>3.7099999999999994E-2</v>
+        <v>4.3399999999999994E-2</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>3.1799999999999995E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>3.1799999999999995E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="3"/>
-        <v>4.7699999999999999E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="3"/>
-        <v>4.7699999999999999E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="3"/>
-        <v>8.48E-2</v>
+        <v>9.920000000000001E-2</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="3"/>
-        <v>8.48E-2</v>
+        <v>9.920000000000001E-2</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="3"/>
-        <v>6.8900000000000003E-2</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="3"/>
-        <v>6.8900000000000003E-2</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="3"/>
-        <v>9.01E-2</v>
+        <v>0.10539999999999999</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="3"/>
-        <v>9.01E-2</v>
+        <v>0.10539999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4.8000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" s="1">
         <f>$A$8*C2</f>
-        <v>3.8400000000000004E-2</v>
+        <v>3.9200000000000006E-2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>3.8400000000000004E-2</v>
+        <v>3.9200000000000006E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="4"/>
-        <v>5.2800000000000007E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="4"/>
-        <v>5.2800000000000007E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="4"/>
-        <v>2.4E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>2.4E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>7.2000000000000008E-2</v>
+        <v>7.350000000000001E-2</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>7.2000000000000008E-2</v>
+        <v>7.350000000000001E-2</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>3.3599999999999998E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>3.3599999999999998E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="4"/>
-        <v>2.8799999999999999E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>2.8799999999999999E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="4"/>
-        <v>4.3200000000000002E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="4"/>
-        <v>4.3200000000000002E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="4"/>
-        <v>7.6800000000000007E-2</v>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="4"/>
-        <v>7.6800000000000007E-2</v>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="4"/>
-        <v>6.2400000000000004E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="4"/>
-        <v>6.2400000000000004E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="4"/>
-        <v>8.1600000000000006E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="4"/>
-        <v>8.1600000000000006E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2.5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>7.5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2.5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>0.15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>0.44</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2701,12 +4643,1269 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="J2">
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>0.6</v>
+      </c>
+      <c r="N2">
+        <v>0.6</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>1.6</v>
+      </c>
+      <c r="R2">
+        <v>1.6</v>
+      </c>
+      <c r="S2">
+        <v>1.3</v>
+      </c>
+      <c r="T2">
+        <v>1.3</v>
+      </c>
+      <c r="U2">
+        <v>1.7</v>
+      </c>
+      <c r="V2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>19</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>A4*$C$2</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1200000000000004E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1200000000000004E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10880000000000001</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10880000000000001</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11560000000000001</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11560000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>$A$5*C2</f>
+        <v>3.9200000000000006E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
+        <v>3.9200000000000006E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.41E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.41E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>$A$6*C2</f>
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1275</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <f>$A$7*C2</f>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14700000000000002</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14700000000000002</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15680000000000002</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15680000000000002</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1666</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f>$A$8*C2</f>
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1133</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1133</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1545</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1545</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1799999999999994E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1799999999999994E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>9.2699999999999991E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>9.2699999999999991E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1648</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1648</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17509999999999998</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17509999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="8.77734375" customWidth="1"/>
+    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Q3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="T3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K4">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="T4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Capacity_Planning/lib/CaseData.xlsx
+++ b/Capacity_Planning/lib/CaseData.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
-    <sheet name="Capacity" sheetId="1" r:id="rId1"/>
-    <sheet name="Purchase Price from Supplier" sheetId="6" r:id="rId2"/>
-    <sheet name="CIF from Supplier M1" sheetId="8" r:id="rId3"/>
-    <sheet name="CIF from Supplier M2" sheetId="9" r:id="rId4"/>
-    <sheet name="CIF from Supplier M3" sheetId="10" r:id="rId5"/>
-    <sheet name="CIF from Supplier M4" sheetId="11" r:id="rId6"/>
-    <sheet name="CIF from Supplier M6" sheetId="12" r:id="rId7"/>
-    <sheet name="CIF from Supplier M7" sheetId="13" r:id="rId8"/>
-    <sheet name="CIF between facilities M5" sheetId="14" r:id="rId9"/>
-    <sheet name="Demand" sheetId="5" r:id="rId10"/>
-    <sheet name="Nations" sheetId="4" r:id="rId11"/>
-    <sheet name="Constant" sheetId="3" r:id="rId12"/>
-    <sheet name="Timing Model" sheetId="2" r:id="rId13"/>
+    <sheet name="Facilities F" sheetId="15" r:id="rId1"/>
+    <sheet name="Capacity" sheetId="1" r:id="rId2"/>
+    <sheet name="Purchase Price from Supplier" sheetId="6" r:id="rId3"/>
+    <sheet name="CIF from Supplier M1" sheetId="8" r:id="rId4"/>
+    <sheet name="CIF from Supplier M2" sheetId="9" r:id="rId5"/>
+    <sheet name="CIF from Supplier M3" sheetId="10" r:id="rId6"/>
+    <sheet name="CIF from Supplier M4" sheetId="11" r:id="rId7"/>
+    <sheet name="CIF from Supplier M6" sheetId="12" r:id="rId8"/>
+    <sheet name="CIF from Supplier M7" sheetId="13" r:id="rId9"/>
+    <sheet name="CIF between facilities M5" sheetId="14" r:id="rId10"/>
+    <sheet name="Demand" sheetId="5" r:id="rId11"/>
+    <sheet name="Nations" sheetId="4" r:id="rId12"/>
+    <sheet name="Constant" sheetId="3" r:id="rId13"/>
+    <sheet name="Timing Model" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>facility f</t>
   </si>
@@ -130,6 +131,21 @@
   <si>
     <t>to</t>
   </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>S_start</t>
+  </si>
+  <si>
+    <t>C_final</t>
+  </si>
 </sst>
 </file>
 
@@ -168,10 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -452,10 +471,1678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="8.77734375" customWidth="1"/>
+    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Q3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="T3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K4">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="T4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <f>SUM(D3:D9)</f>
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="C3">
+        <f>B3*$C$1</f>
+        <v>12.5</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3*E3</f>
+        <v>8.75</v>
+      </c>
+      <c r="E3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C9" si="0">B4*$C$1</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D9" si="1">C4*E4</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.15</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>0.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,387 +2730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1">
-        <v>50</v>
-      </c>
-      <c r="D1">
-        <f>SUM(D3:D9)</f>
-        <v>23.75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.25</v>
-      </c>
-      <c r="C3">
-        <f>B3*$C$1</f>
-        <v>12.5</v>
-      </c>
-      <c r="D3" s="2">
-        <f>C3*E3</f>
-        <v>8.75</v>
-      </c>
-      <c r="E3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C9" si="0">B4*$C$1</f>
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D9" si="1">C4*E4</f>
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.05</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.15</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.1</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.15</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-      <c r="E9">
-        <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>0.15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>0.44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1586,7 +2893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -2197,7 +3504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -2808,7 +4115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -3419,7 +4726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -4023,617 +5330,6 @@
       <c r="V8" s="1">
         <f t="shared" si="4"/>
         <v>8.6699999999999985E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>0.7</v>
-      </c>
-      <c r="L2">
-        <v>0.7</v>
-      </c>
-      <c r="M2">
-        <v>0.6</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="P2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
-        <v>1.6</v>
-      </c>
-      <c r="R2">
-        <v>1.6</v>
-      </c>
-      <c r="S2">
-        <v>1.3</v>
-      </c>
-      <c r="T2">
-        <v>1.3</v>
-      </c>
-      <c r="U2">
-        <v>1.7</v>
-      </c>
-      <c r="V2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>17</v>
-      </c>
-      <c r="T3">
-        <v>18</v>
-      </c>
-      <c r="U3">
-        <v>19</v>
-      </c>
-      <c r="V3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>A4*$C$2</f>
-        <v>0.06</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>0.06</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1275</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <f>$A$5*C2</f>
-        <v>4.24E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>4.24E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8300000000000005E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8300000000000005E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7099999999999994E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7099999999999994E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1799999999999995E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1799999999999995E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.48E-2</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.48E-2</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.01E-2</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.01E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.115</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f>$A$6*C2</f>
-        <v>9.2000000000000012E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>9.2000000000000012E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12650000000000003</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12650000000000003</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17250000000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17250000000000001</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10350000000000001</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10350000000000001</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18400000000000002</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18400000000000002</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14950000000000002</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14950000000000002</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19550000000000001</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19550000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6.2E-2</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f>$A$7*C2</f>
-        <v>4.9600000000000005E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>4.9600000000000005E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8200000000000011E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8200000000000011E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.3399999999999994E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.3399999999999994E-2</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.920000000000001E-2</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.920000000000001E-2</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.10539999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f>$A$8*C2</f>
-        <v>3.9200000000000006E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>3.9200000000000006E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.350000000000001E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.350000000000001E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.3299999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4671,7 +5367,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -4809,442 +5505,442 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6.8000000000000005E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1">
         <f>A4*$C$2</f>
-        <v>5.4400000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>5.4400000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>7.4800000000000005E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>7.4800000000000005E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10200000000000001</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10200000000000001</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>4.7600000000000003E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>4.7600000000000003E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>4.0800000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>4.0800000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>6.1200000000000004E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>6.1200000000000004E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10880000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10880000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v>8.8400000000000006E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>8.8400000000000006E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>0.11560000000000001</v>
+        <v>0.1275</v>
       </c>
       <c r="V4" s="1">
         <f t="shared" si="0"/>
-        <v>0.11560000000000001</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4.9000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <f>$A$5*C2</f>
-        <v>3.9200000000000006E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>3.9200000000000006E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>5.3900000000000003E-2</v>
+        <v>5.8300000000000005E-2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>5.3900000000000003E-2</v>
+        <v>5.8300000000000005E-2</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>2.4500000000000001E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>2.4500000000000001E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>7.350000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>7.350000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>3.4299999999999997E-2</v>
+        <v>3.7099999999999994E-2</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>3.4299999999999997E-2</v>
+        <v>3.7099999999999994E-2</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>2.9399999999999999E-2</v>
+        <v>3.1799999999999995E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>2.9399999999999999E-2</v>
+        <v>3.1799999999999995E-2</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>4.41E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>4.41E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="1"/>
-        <v>7.8400000000000011E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="1"/>
-        <v>7.8400000000000011E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>6.3700000000000007E-2</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="1"/>
-        <v>6.3700000000000007E-2</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="1"/>
-        <v>8.3299999999999999E-2</v>
+        <v>9.01E-2</v>
       </c>
       <c r="V5" s="1">
         <f t="shared" si="1"/>
-        <v>8.3299999999999999E-2</v>
+        <v>9.01E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.115</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="1">
         <f>$A$6*C2</f>
-        <v>0.06</v>
+        <v>9.2000000000000012E-2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>0.06</v>
+        <v>9.2000000000000012E-2</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.12650000000000003</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.12650000000000003</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>0.11249999999999999</v>
+        <v>0.17250000000000001</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>0.11249999999999999</v>
+        <v>0.17250000000000001</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>5.2499999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>5.2499999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>4.4999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>4.4999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0.10350000000000001</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="2"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0.10350000000000001</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="2"/>
-        <v>9.7500000000000003E-2</v>
+        <v>0.14950000000000002</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="2"/>
-        <v>9.7500000000000003E-2</v>
+        <v>0.14950000000000002</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="2"/>
-        <v>0.1275</v>
+        <v>0.19550000000000001</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="2"/>
-        <v>0.1275</v>
+        <v>0.19550000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9.8000000000000004E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="1">
         <f>$A$7*C2</f>
-        <v>7.8400000000000011E-2</v>
+        <v>4.9600000000000005E-2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>7.8400000000000011E-2</v>
+        <v>4.9600000000000005E-2</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="3"/>
-        <v>0.10780000000000001</v>
+        <v>6.8200000000000011E-2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="3"/>
-        <v>0.10780000000000001</v>
+        <v>6.8200000000000011E-2</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>4.9000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="3"/>
-        <v>4.9000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.14700000000000002</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>0.14700000000000002</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>6.8599999999999994E-2</v>
+        <v>4.3399999999999994E-2</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>6.8599999999999994E-2</v>
+        <v>4.3399999999999994E-2</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>5.8799999999999998E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>5.8799999999999998E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="3"/>
-        <v>8.8200000000000001E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="3"/>
-        <v>8.8200000000000001E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="3"/>
-        <v>0.15680000000000002</v>
+        <v>9.920000000000001E-2</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="3"/>
-        <v>0.15680000000000002</v>
+        <v>9.920000000000001E-2</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="3"/>
-        <v>0.12740000000000001</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="3"/>
-        <v>0.12740000000000001</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="3"/>
-        <v>0.1666</v>
+        <v>0.10539999999999999</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="3"/>
-        <v>0.1666</v>
+        <v>0.10539999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.10299999999999999</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" s="1">
         <f>$A$8*C2</f>
-        <v>8.2400000000000001E-2</v>
+        <v>3.9200000000000006E-2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>8.2400000000000001E-2</v>
+        <v>3.9200000000000006E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1133</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1133</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="4"/>
-        <v>5.1499999999999997E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>5.1499999999999997E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1545</v>
+        <v>7.350000000000001E-2</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1545</v>
+        <v>7.350000000000001E-2</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>7.2099999999999997E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>7.2099999999999997E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="4"/>
-        <v>6.1799999999999994E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>6.1799999999999994E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="4"/>
-        <v>9.2699999999999991E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="4"/>
-        <v>9.2699999999999991E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1648</v>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1648</v>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="4"/>
-        <v>0.13389999999999999</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="4"/>
-        <v>0.13389999999999999</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="4"/>
-        <v>0.17509999999999998</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="4"/>
-        <v>0.17509999999999998</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5254,655 +5950,608 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="8.77734375" customWidth="1"/>
+    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="J2">
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>0.6</v>
+      </c>
+      <c r="N2">
+        <v>0.6</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>1.6</v>
+      </c>
+      <c r="R2">
+        <v>1.6</v>
+      </c>
+      <c r="S2">
+        <v>1.3</v>
+      </c>
+      <c r="T2">
+        <v>1.3</v>
+      </c>
+      <c r="U2">
+        <v>1.7</v>
+      </c>
+      <c r="V2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="J3">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="M3">
         <v>11</v>
       </c>
-      <c r="M2">
+      <c r="N3">
         <v>12</v>
       </c>
-      <c r="N2">
+      <c r="O3">
         <v>13</v>
       </c>
-      <c r="O2">
+      <c r="P3">
         <v>14</v>
       </c>
-      <c r="P2">
+      <c r="Q3">
         <v>15</v>
       </c>
-      <c r="Q2">
+      <c r="R3">
         <v>16</v>
       </c>
-      <c r="R2">
+      <c r="S3">
         <v>17</v>
       </c>
-      <c r="S2">
+      <c r="T3">
         <v>18</v>
       </c>
-      <c r="T2">
+      <c r="U3">
         <v>19</v>
       </c>
-      <c r="U2">
+      <c r="V3">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F3">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G3">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H3">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I3">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J3">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K3">
-        <v>3.9E-2</v>
-      </c>
-      <c r="L3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="N3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Q3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="R3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="S3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="T3">
-        <v>2.7E-2</v>
-      </c>
-      <c r="U3">
-        <v>2.7E-2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H4">
+        <f>A4*$C$2</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I4">
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="L4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="N4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Q4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="R4">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="S4">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="T4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="U4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="V4" s="1"/>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1200000000000004E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1200000000000004E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10880000000000001</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10880000000000001</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11560000000000001</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11560000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>$A$5*C2</f>
+        <v>3.9200000000000006E-2</v>
+      </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
+        <v>3.9200000000000006E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.350000000000001E-2</v>
       </c>
       <c r="J5" s="1">
-        <v>2.8000000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.350000000000001E-2</v>
       </c>
       <c r="K5" s="1">
-        <v>2.8000000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="L5" s="1">
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="M5" s="1">
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="N5" s="1">
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="O5" s="1">
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.41E-2</v>
       </c>
       <c r="P5" s="1">
-        <v>2.5999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.41E-2</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.5999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="R5" s="1">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="S5" s="1">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="T5" s="1">
-        <v>4.7E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="U5" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="V5" s="1"/>
+        <f t="shared" si="1"/>
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3299999999999999E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>$A$6*C2</f>
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
+        <v>0.06</v>
+      </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="H6" s="1">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="I6" s="1">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.11249999999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>2.8000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.11249999999999999</v>
       </c>
       <c r="K6" s="1">
-        <v>2.8000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="L6" s="1">
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="M6" s="1">
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N6" s="1">
+        <f t="shared" si="2"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="O6" s="1">
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="P6" s="1">
-        <v>2.5999999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.5999999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="R6" s="1">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="S6" s="1">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="T6" s="1">
-        <v>4.7E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="U6" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="V6" s="1"/>
+        <f t="shared" si="2"/>
+        <v>0.1275</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1275</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <f>$A$7*C2</f>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10780000000000001</v>
+      </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.10780000000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>3.1E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>3.1E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.14700000000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.14700000000000002</v>
       </c>
       <c r="K7" s="1">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="L7" s="1">
-        <v>4.8000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="M7" s="1">
-        <v>4.8000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="N7" s="1">
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="O7" s="1">
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="P7" s="1">
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.15680000000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.15680000000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.12740000000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.12740000000000001</v>
       </c>
       <c r="U7" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="V7" s="1"/>
+        <f t="shared" si="3"/>
+        <v>0.1666</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1666</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f>$A$8*C2</f>
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1133</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1133</v>
+      </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>3.1E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="I8" s="1">
-        <v>3.1E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.1545</v>
       </c>
       <c r="J8" s="1">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.1545</v>
       </c>
       <c r="K8" s="1">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.2099999999999997E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>4.8000000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.2099999999999997E-2</v>
       </c>
       <c r="M8" s="1">
-        <v>4.8000000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.1799999999999994E-2</v>
       </c>
       <c r="N8" s="1">
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.1799999999999994E-2</v>
       </c>
       <c r="O8" s="1">
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.2699999999999991E-2</v>
       </c>
       <c r="P8" s="1">
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.2699999999999991E-2</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.1648</v>
       </c>
       <c r="R8" s="1">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.1648</v>
       </c>
       <c r="S8" s="1">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.13389999999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.13389999999999999</v>
       </c>
       <c r="U8" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="O9" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="P9" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="R9" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S9" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="T9" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="U9" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M10" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="P10" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="R10" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S10" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="T10" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="U10" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.17509999999999998</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17509999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Capacity_Planning/lib/CaseData.xlsx
+++ b/Capacity_Planning/lib/CaseData.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities F" sheetId="15" r:id="rId1"/>
-    <sheet name="Capacity" sheetId="1" r:id="rId2"/>
-    <sheet name="Purchase Price from Supplier" sheetId="6" r:id="rId3"/>
-    <sheet name="CIF from Supplier M1" sheetId="8" r:id="rId4"/>
-    <sheet name="CIF from Supplier M2" sheetId="9" r:id="rId5"/>
-    <sheet name="CIF from Supplier M3" sheetId="10" r:id="rId6"/>
-    <sheet name="CIF from Supplier M4" sheetId="11" r:id="rId7"/>
-    <sheet name="CIF from Supplier M6" sheetId="12" r:id="rId8"/>
-    <sheet name="CIF from Supplier M7" sheetId="13" r:id="rId9"/>
-    <sheet name="CIF between facilities M5" sheetId="14" r:id="rId10"/>
-    <sheet name="Demand" sheetId="5" r:id="rId11"/>
-    <sheet name="Nations" sheetId="4" r:id="rId12"/>
+    <sheet name="Location F in N" sheetId="4" r:id="rId2"/>
+    <sheet name="Capacity" sheetId="1" r:id="rId3"/>
+    <sheet name="Purchase Price from Supplier" sheetId="6" r:id="rId4"/>
+    <sheet name="CIF from Supplier M1" sheetId="8" r:id="rId5"/>
+    <sheet name="CIF from Supplier M2" sheetId="9" r:id="rId6"/>
+    <sheet name="CIF from Supplier M3" sheetId="10" r:id="rId7"/>
+    <sheet name="CIF from Supplier M4" sheetId="11" r:id="rId8"/>
+    <sheet name="CIF from Supplier M6" sheetId="12" r:id="rId9"/>
+    <sheet name="CIF from Supplier M7" sheetId="13" r:id="rId10"/>
+    <sheet name="CIF between facilities M5" sheetId="14" r:id="rId11"/>
+    <sheet name="Demand" sheetId="5" r:id="rId12"/>
     <sheet name="Constant" sheetId="3" r:id="rId13"/>
     <sheet name="Timing Model" sheetId="2" r:id="rId14"/>
   </sheets>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>facility f</t>
-  </si>
-  <si>
-    <t>initial cap. Qf0</t>
   </si>
   <si>
     <t>max cap. Quf</t>
@@ -135,6 +132,9 @@
     <t>IF</t>
   </si>
   <si>
+    <t>Facility f</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>C_final</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>F/N</t>
   </si>
 </sst>
 </file>
@@ -473,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -538,7 +544,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>33</v>
@@ -1100,6 +1106,617 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="J2">
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>0.6</v>
+      </c>
+      <c r="N2">
+        <v>0.6</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>1.6</v>
+      </c>
+      <c r="R2">
+        <v>1.6</v>
+      </c>
+      <c r="S2">
+        <v>1.3</v>
+      </c>
+      <c r="T2">
+        <v>1.3</v>
+      </c>
+      <c r="U2">
+        <v>1.7</v>
+      </c>
+      <c r="V2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>19</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>A4*$C$2</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1200000000000004E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1200000000000004E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10880000000000001</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10880000000000001</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11560000000000001</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11560000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>$A$5*C2</f>
+        <v>3.9200000000000006E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
+        <v>3.9200000000000006E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.41E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.41E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>$A$6*C2</f>
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1275</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <f>$A$7*C2</f>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14700000000000002</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14700000000000002</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15680000000000002</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15680000000000002</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1666</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f>$A$8*C2</f>
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1133</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1133</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1545</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1545</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1799999999999994E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1799999999999994E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>9.2699999999999991E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>9.2699999999999991E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1648</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1648</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17509999999999998</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17509999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
@@ -1116,15 +1733,15 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1757,7 +2374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1775,7 +2392,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1">
         <v>50</v>
@@ -1787,19 +2404,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,157 +2550,6 @@
       </c>
       <c r="E9">
         <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2572,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>300</v>
@@ -2114,7 +2580,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0.44</v>
@@ -2139,591 +2605,1045 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>90</v>
-      </c>
-      <c r="C2">
-        <v>150</v>
-      </c>
-      <c r="D2">
+      <c r="J1" s="3">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="E2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="F2">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="G2">
-        <f>0.6*F2</f>
-        <v>0.34859999999999997</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>81</v>
-      </c>
-      <c r="C3">
-        <v>140</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G21" si="0">0.6*F3</f>
-        <v>0.41220000000000001</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>0.72</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.432</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>85</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="G5">
-        <f>0.6*F5</f>
-        <v>0.41220000000000001</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>90</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.5736</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>120</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>1.113</v>
-      </c>
-      <c r="G7">
-        <f>0.6*F7</f>
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>150</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>1.113</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>80</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G18" si="1">0.6*F9</f>
-        <v>0.61499999999999988</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0.61499999999999988</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>70</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0.49499999999999994</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>80</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0.5736</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>120</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0.49499999999999994</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>120</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="F16">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="H16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>90</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <v>0.72</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0.432</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>60</v>
-      </c>
-      <c r="C18">
-        <v>120</v>
-      </c>
-      <c r="D18">
-        <v>30</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0.34859999999999997</v>
-      </c>
-      <c r="H18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>25</v>
-      </c>
-      <c r="F19">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>60</v>
-      </c>
-      <c r="D20">
-        <v>30</v>
-      </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0.41100000000000003</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>140</v>
-      </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-      <c r="E21">
-        <v>30</v>
-      </c>
-      <c r="F21">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0.41100000000000003</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2731,6 +3651,535 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F2">
+        <f>0.6*E2</f>
+        <v>0.34859999999999997</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>140</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="0">0.6*E3</f>
+        <v>0.41220000000000001</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0.72</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.432</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F5">
+        <f>0.6*E5</f>
+        <v>0.41220000000000001</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.5736</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1.113</v>
+      </c>
+      <c r="F7">
+        <f>0.6*E7</f>
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>1.113</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F18" si="1">0.6*E9</f>
+        <v>0.61499999999999988</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.61499999999999988</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.49499999999999994</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.5736</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.49499999999999994</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0.72</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.432</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.34859999999999997</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.41100000000000003</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>140</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.41100000000000003</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2742,15 +4191,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2893,7 +4342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -2923,7 +4372,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2993,10 +4442,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3504,7 +4953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -3534,7 +4983,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -3604,10 +5053,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4115,7 +5564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -4145,7 +5594,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -4215,10 +5664,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4726,7 +6175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -4756,7 +6205,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -4826,10 +6275,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5330,617 +6779,6 @@
       <c r="V8" s="1">
         <f t="shared" si="4"/>
         <v>8.6699999999999985E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>0.7</v>
-      </c>
-      <c r="L2">
-        <v>0.7</v>
-      </c>
-      <c r="M2">
-        <v>0.6</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="P2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
-        <v>1.6</v>
-      </c>
-      <c r="R2">
-        <v>1.6</v>
-      </c>
-      <c r="S2">
-        <v>1.3</v>
-      </c>
-      <c r="T2">
-        <v>1.3</v>
-      </c>
-      <c r="U2">
-        <v>1.7</v>
-      </c>
-      <c r="V2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>17</v>
-      </c>
-      <c r="T3">
-        <v>18</v>
-      </c>
-      <c r="U3">
-        <v>19</v>
-      </c>
-      <c r="V3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>A4*$C$2</f>
-        <v>0.06</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>0.06</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1275</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <f>$A$5*C2</f>
-        <v>4.24E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>4.24E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8300000000000005E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8300000000000005E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7099999999999994E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7099999999999994E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1799999999999995E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1799999999999995E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.48E-2</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.48E-2</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.01E-2</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.01E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.115</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f>$A$6*C2</f>
-        <v>9.2000000000000012E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>9.2000000000000012E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12650000000000003</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12650000000000003</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17250000000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17250000000000001</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10350000000000001</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10350000000000001</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18400000000000002</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18400000000000002</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14950000000000002</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14950000000000002</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19550000000000001</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19550000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6.2E-2</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f>$A$7*C2</f>
-        <v>4.9600000000000005E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>4.9600000000000005E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8200000000000011E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8200000000000011E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.3399999999999994E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.3399999999999994E-2</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.920000000000001E-2</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.920000000000001E-2</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.10539999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f>$A$8*C2</f>
-        <v>3.9200000000000006E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>3.9200000000000006E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.350000000000001E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.350000000000001E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.3299999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5978,7 +6816,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -6048,10 +6886,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6116,442 +6954,442 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6.8000000000000005E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1">
         <f>A4*$C$2</f>
-        <v>5.4400000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>5.4400000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>7.4800000000000005E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>7.4800000000000005E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10200000000000001</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10200000000000001</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>4.7600000000000003E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>4.7600000000000003E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>4.0800000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>4.0800000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>6.1200000000000004E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>6.1200000000000004E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10880000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10880000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v>8.8400000000000006E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>8.8400000000000006E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>0.11560000000000001</v>
+        <v>0.1275</v>
       </c>
       <c r="V4" s="1">
         <f t="shared" si="0"/>
-        <v>0.11560000000000001</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4.9000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <f>$A$5*C2</f>
-        <v>3.9200000000000006E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>3.9200000000000006E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>5.3900000000000003E-2</v>
+        <v>5.8300000000000005E-2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>5.3900000000000003E-2</v>
+        <v>5.8300000000000005E-2</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>2.4500000000000001E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>2.4500000000000001E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>7.350000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>7.350000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>3.4299999999999997E-2</v>
+        <v>3.7099999999999994E-2</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>3.4299999999999997E-2</v>
+        <v>3.7099999999999994E-2</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>2.9399999999999999E-2</v>
+        <v>3.1799999999999995E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>2.9399999999999999E-2</v>
+        <v>3.1799999999999995E-2</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>4.41E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>4.41E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="1"/>
-        <v>7.8400000000000011E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="1"/>
-        <v>7.8400000000000011E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>6.3700000000000007E-2</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="1"/>
-        <v>6.3700000000000007E-2</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="1"/>
-        <v>8.3299999999999999E-2</v>
+        <v>9.01E-2</v>
       </c>
       <c r="V5" s="1">
         <f t="shared" si="1"/>
-        <v>8.3299999999999999E-2</v>
+        <v>9.01E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.115</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="1">
         <f>$A$6*C2</f>
-        <v>0.06</v>
+        <v>9.2000000000000012E-2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>0.06</v>
+        <v>9.2000000000000012E-2</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.12650000000000003</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.12650000000000003</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>0.11249999999999999</v>
+        <v>0.17250000000000001</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>0.11249999999999999</v>
+        <v>0.17250000000000001</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>5.2499999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>5.2499999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>4.4999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>4.4999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0.10350000000000001</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="2"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0.10350000000000001</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="2"/>
-        <v>9.7500000000000003E-2</v>
+        <v>0.14950000000000002</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="2"/>
-        <v>9.7500000000000003E-2</v>
+        <v>0.14950000000000002</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="2"/>
-        <v>0.1275</v>
+        <v>0.19550000000000001</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="2"/>
-        <v>0.1275</v>
+        <v>0.19550000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9.8000000000000004E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="1">
         <f>$A$7*C2</f>
-        <v>7.8400000000000011E-2</v>
+        <v>4.9600000000000005E-2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>7.8400000000000011E-2</v>
+        <v>4.9600000000000005E-2</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="3"/>
-        <v>0.10780000000000001</v>
+        <v>6.8200000000000011E-2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="3"/>
-        <v>0.10780000000000001</v>
+        <v>6.8200000000000011E-2</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>4.9000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="3"/>
-        <v>4.9000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.14700000000000002</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>0.14700000000000002</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>6.8599999999999994E-2</v>
+        <v>4.3399999999999994E-2</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>6.8599999999999994E-2</v>
+        <v>4.3399999999999994E-2</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>5.8799999999999998E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>5.8799999999999998E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="3"/>
-        <v>8.8200000000000001E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="3"/>
-        <v>8.8200000000000001E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="3"/>
-        <v>0.15680000000000002</v>
+        <v>9.920000000000001E-2</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="3"/>
-        <v>0.15680000000000002</v>
+        <v>9.920000000000001E-2</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="3"/>
-        <v>0.12740000000000001</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="3"/>
-        <v>0.12740000000000001</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="3"/>
-        <v>0.1666</v>
+        <v>0.10539999999999999</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="3"/>
-        <v>0.1666</v>
+        <v>0.10539999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.10299999999999999</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" s="1">
         <f>$A$8*C2</f>
-        <v>8.2400000000000001E-2</v>
+        <v>3.9200000000000006E-2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>8.2400000000000001E-2</v>
+        <v>3.9200000000000006E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1133</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1133</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="4"/>
-        <v>5.1499999999999997E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>5.1499999999999997E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1545</v>
+        <v>7.350000000000001E-2</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1545</v>
+        <v>7.350000000000001E-2</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>7.2099999999999997E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>7.2099999999999997E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="4"/>
-        <v>6.1799999999999994E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>6.1799999999999994E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="4"/>
-        <v>9.2699999999999991E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="4"/>
-        <v>9.2699999999999991E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1648</v>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1648</v>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="4"/>
-        <v>0.13389999999999999</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="4"/>
-        <v>0.13389999999999999</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="4"/>
-        <v>0.17509999999999998</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="4"/>
-        <v>0.17509999999999998</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Capacity_Planning/lib/CaseData.xlsx
+++ b/Capacity_Planning/lib/CaseData.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Facilities F" sheetId="15" r:id="rId1"/>
-    <sheet name="Location F in N" sheetId="4" r:id="rId2"/>
-    <sheet name="Capacity" sheetId="1" r:id="rId3"/>
-    <sheet name="Purchase Price from Supplier" sheetId="6" r:id="rId4"/>
-    <sheet name="CIF from Supplier M1" sheetId="8" r:id="rId5"/>
-    <sheet name="CIF from Supplier M2" sheetId="9" r:id="rId6"/>
-    <sheet name="CIF from Supplier M3" sheetId="10" r:id="rId7"/>
-    <sheet name="CIF from Supplier M4" sheetId="11" r:id="rId8"/>
-    <sheet name="CIF from Supplier M6" sheetId="12" r:id="rId9"/>
-    <sheet name="CIF from Supplier M7" sheetId="13" r:id="rId10"/>
-    <sheet name="CIF between facilities M5" sheetId="14" r:id="rId11"/>
-    <sheet name="Demand" sheetId="5" r:id="rId12"/>
-    <sheet name="Constant" sheetId="3" r:id="rId13"/>
-    <sheet name="Timing Model" sheetId="2" r:id="rId14"/>
+    <sheet name="F" sheetId="15" r:id="rId1"/>
+    <sheet name="F in N" sheetId="4" r:id="rId2"/>
+    <sheet name="TRn" sheetId="16" r:id="rId3"/>
+    <sheet name="Capacity" sheetId="1" r:id="rId4"/>
+    <sheet name="Purchase Price from Supplier" sheetId="6" r:id="rId5"/>
+    <sheet name="CIF from Supplier M1" sheetId="8" r:id="rId6"/>
+    <sheet name="CIF from Supplier M2" sheetId="9" r:id="rId7"/>
+    <sheet name="CIF from Supplier M3" sheetId="10" r:id="rId8"/>
+    <sheet name="CIF from Supplier M4" sheetId="11" r:id="rId9"/>
+    <sheet name="CIF from Supplier M6" sheetId="12" r:id="rId10"/>
+    <sheet name="CIF from Supplier M7" sheetId="13" r:id="rId11"/>
+    <sheet name="CIF between facilities M5" sheetId="14" r:id="rId12"/>
+    <sheet name="Demand" sheetId="5" r:id="rId13"/>
+    <sheet name="Constant" sheetId="3" r:id="rId14"/>
+    <sheet name="Timing Model" sheetId="2" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>facility f</t>
   </si>
@@ -147,10 +148,7 @@
     <t>C_final</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>F/N</t>
+    <t>f/n</t>
   </si>
 </sst>
 </file>
@@ -479,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,10 +990,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1009,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1135,7 +1133,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1273,442 +1271,442 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6.8000000000000005E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1">
         <f>A4*$C$2</f>
-        <v>5.4400000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>5.4400000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>7.4800000000000005E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>7.4800000000000005E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10200000000000001</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10200000000000001</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>4.7600000000000003E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>4.7600000000000003E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>4.0800000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>4.0800000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>6.1200000000000004E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>6.1200000000000004E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10880000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10880000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v>8.8400000000000006E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>8.8400000000000006E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>0.11560000000000001</v>
+        <v>0.1275</v>
       </c>
       <c r="V4" s="1">
         <f t="shared" si="0"/>
-        <v>0.11560000000000001</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4.9000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <f>$A$5*C2</f>
-        <v>3.9200000000000006E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>3.9200000000000006E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>5.3900000000000003E-2</v>
+        <v>5.8300000000000005E-2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>5.3900000000000003E-2</v>
+        <v>5.8300000000000005E-2</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>2.4500000000000001E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>2.4500000000000001E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>7.350000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>7.350000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>3.4299999999999997E-2</v>
+        <v>3.7099999999999994E-2</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>3.4299999999999997E-2</v>
+        <v>3.7099999999999994E-2</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>2.9399999999999999E-2</v>
+        <v>3.1799999999999995E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>2.9399999999999999E-2</v>
+        <v>3.1799999999999995E-2</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>4.41E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>4.41E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="1"/>
-        <v>7.8400000000000011E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="1"/>
-        <v>7.8400000000000011E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>6.3700000000000007E-2</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="1"/>
-        <v>6.3700000000000007E-2</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="1"/>
-        <v>8.3299999999999999E-2</v>
+        <v>9.01E-2</v>
       </c>
       <c r="V5" s="1">
         <f t="shared" si="1"/>
-        <v>8.3299999999999999E-2</v>
+        <v>9.01E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.115</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="1">
         <f>$A$6*C2</f>
-        <v>0.06</v>
+        <v>9.2000000000000012E-2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>0.06</v>
+        <v>9.2000000000000012E-2</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.12650000000000003</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.12650000000000003</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>0.11249999999999999</v>
+        <v>0.17250000000000001</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>0.11249999999999999</v>
+        <v>0.17250000000000001</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>5.2499999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>5.2499999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>4.4999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>4.4999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0.10350000000000001</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="2"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0.10350000000000001</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="2"/>
-        <v>9.7500000000000003E-2</v>
+        <v>0.14950000000000002</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="2"/>
-        <v>9.7500000000000003E-2</v>
+        <v>0.14950000000000002</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="2"/>
-        <v>0.1275</v>
+        <v>0.19550000000000001</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="2"/>
-        <v>0.1275</v>
+        <v>0.19550000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9.8000000000000004E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="1">
         <f>$A$7*C2</f>
-        <v>7.8400000000000011E-2</v>
+        <v>4.9600000000000005E-2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>7.8400000000000011E-2</v>
+        <v>4.9600000000000005E-2</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="3"/>
-        <v>0.10780000000000001</v>
+        <v>6.8200000000000011E-2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="3"/>
-        <v>0.10780000000000001</v>
+        <v>6.8200000000000011E-2</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>4.9000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="3"/>
-        <v>4.9000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.14700000000000002</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>0.14700000000000002</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>6.8599999999999994E-2</v>
+        <v>4.3399999999999994E-2</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>6.8599999999999994E-2</v>
+        <v>4.3399999999999994E-2</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>5.8799999999999998E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>5.8799999999999998E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="3"/>
-        <v>8.8200000000000001E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="3"/>
-        <v>8.8200000000000001E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="3"/>
-        <v>0.15680000000000002</v>
+        <v>9.920000000000001E-2</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="3"/>
-        <v>0.15680000000000002</v>
+        <v>9.920000000000001E-2</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="3"/>
-        <v>0.12740000000000001</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="3"/>
-        <v>0.12740000000000001</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="3"/>
-        <v>0.1666</v>
+        <v>0.10539999999999999</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="3"/>
-        <v>0.1666</v>
+        <v>0.10539999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.10299999999999999</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" s="1">
         <f>$A$8*C2</f>
-        <v>8.2400000000000001E-2</v>
+        <v>3.9200000000000006E-2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>8.2400000000000001E-2</v>
+        <v>3.9200000000000006E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1133</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1133</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="4"/>
-        <v>5.1499999999999997E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>5.1499999999999997E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1545</v>
+        <v>7.350000000000001E-2</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1545</v>
+        <v>7.350000000000001E-2</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>7.2099999999999997E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>7.2099999999999997E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="4"/>
-        <v>6.1799999999999994E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>6.1799999999999994E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="4"/>
-        <v>9.2699999999999991E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="4"/>
-        <v>9.2699999999999991E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1648</v>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="4"/>
-        <v>0.1648</v>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="4"/>
-        <v>0.13389999999999999</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="4"/>
-        <v>0.13389999999999999</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="4"/>
-        <v>0.17509999999999998</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="4"/>
-        <v>0.17509999999999998</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1717,6 +1715,617 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="J2">
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>0.6</v>
+      </c>
+      <c r="N2">
+        <v>0.6</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>1.6</v>
+      </c>
+      <c r="R2">
+        <v>1.6</v>
+      </c>
+      <c r="S2">
+        <v>1.3</v>
+      </c>
+      <c r="T2">
+        <v>1.3</v>
+      </c>
+      <c r="U2">
+        <v>1.7</v>
+      </c>
+      <c r="V2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>19</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>A4*$C$2</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1200000000000004E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1200000000000004E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10880000000000001</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10880000000000001</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11560000000000001</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11560000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>$A$5*C2</f>
+        <v>3.9200000000000006E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
+        <v>3.9200000000000006E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.41E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.41E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>$A$6*C2</f>
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1275</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <f>$A$7*C2</f>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14700000000000002</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14700000000000002</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15680000000000002</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15680000000000002</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1666</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f>$A$8*C2</f>
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1133</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1133</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1545</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1545</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1799999999999994E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1799999999999994E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>9.2699999999999991E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>9.2699999999999991E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1648</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1648</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17509999999999998</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17509999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
@@ -2374,7 +2983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2557,7 +3166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2591,7 +3200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2605,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2619,9 +3228,9 @@
     <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -2653,23 +3262,8 @@
       <c r="K1" s="3">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2703,20 +3297,8 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2750,17 +3332,8 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2794,17 +3367,8 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2838,17 +3402,8 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2882,14 +3437,8 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2923,20 +3472,8 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2970,17 +3507,8 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3014,20 +3542,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9">
-        <v>6</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="P9">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3061,17 +3577,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>9</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="P10">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3105,17 +3612,8 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <v>7</v>
-      </c>
-      <c r="P11">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3150,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3185,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3220,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3255,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3469,181 +3967,421 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3652,526 +4390,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>150</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="F2">
-        <f>0.6*E2</f>
-        <v>0.34859999999999997</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>140</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F21" si="0">0.6*E3</f>
-        <v>0.41220000000000001</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0.72</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.432</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>85</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="F5">
-        <f>0.6*E5</f>
-        <v>0.41220000000000001</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>90</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.5736</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>120</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1.113</v>
-      </c>
-      <c r="F7">
-        <f>0.6*E7</f>
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>150</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>1.113</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>80</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F18" si="1">0.6*E9</f>
-        <v>0.61499999999999988</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.61499999999999988</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>70</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.49499999999999994</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>80</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0.5736</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>90</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>120</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0.49499999999999994</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>120</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>90</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>0.72</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>0.432</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>120</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0.34859999999999997</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>50</v>
-      </c>
-      <c r="C19">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="G19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>60</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0.41100000000000003</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>140</v>
-      </c>
-      <c r="C21">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-      <c r="E21">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0.41100000000000003</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -4180,6 +4495,472 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F2">
+        <f>0.6*E2</f>
+        <v>0.34859999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>140</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="0">0.6*E3</f>
+        <v>0.41220000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0.72</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F5">
+        <f>0.6*E5</f>
+        <v>0.41220000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.5736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1.113</v>
+      </c>
+      <c r="F7">
+        <f>0.6*E7</f>
+        <v>0.66779999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>1.113</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.66779999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F18" si="1">0.6*E9</f>
+        <v>0.61499999999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.61499999999999988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.49499999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.5736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.49499999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0.72</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.34859999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.41100000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>140</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.41100000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4342,7 +5123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -4953,7 +5734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -5564,7 +6345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -6175,7 +6956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
@@ -6784,615 +7565,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>0.7</v>
-      </c>
-      <c r="L2">
-        <v>0.7</v>
-      </c>
-      <c r="M2">
-        <v>0.6</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="P2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
-        <v>1.6</v>
-      </c>
-      <c r="R2">
-        <v>1.6</v>
-      </c>
-      <c r="S2">
-        <v>1.3</v>
-      </c>
-      <c r="T2">
-        <v>1.3</v>
-      </c>
-      <c r="U2">
-        <v>1.7</v>
-      </c>
-      <c r="V2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>17</v>
-      </c>
-      <c r="T3">
-        <v>18</v>
-      </c>
-      <c r="U3">
-        <v>19</v>
-      </c>
-      <c r="V3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>A4*$C$2</f>
-        <v>0.06</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>0.06</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1275</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <f>$A$5*C2</f>
-        <v>4.24E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>4.24E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8300000000000005E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8300000000000005E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7099999999999994E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7099999999999994E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1799999999999995E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1799999999999995E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.48E-2</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.48E-2</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.01E-2</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.01E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.115</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f>$A$6*C2</f>
-        <v>9.2000000000000012E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>9.2000000000000012E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12650000000000003</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12650000000000003</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17250000000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17250000000000001</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10350000000000001</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10350000000000001</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18400000000000002</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18400000000000002</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14950000000000002</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14950000000000002</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19550000000000001</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19550000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6.2E-2</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f>$A$7*C2</f>
-        <v>4.9600000000000005E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>4.9600000000000005E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8200000000000011E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8200000000000011E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.3399999999999994E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.3399999999999994E-2</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.920000000000001E-2</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.920000000000001E-2</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.10539999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f>$A$8*C2</f>
-        <v>3.9200000000000006E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>3.9200000000000006E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.350000000000001E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.350000000000001E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.3299999999999999E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Capacity_Planning/lib/CaseData.xlsx
+++ b/Capacity_Planning/lib/CaseData.xlsx
@@ -9,27 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="15" r:id="rId1"/>
     <sheet name="F in N" sheetId="4" r:id="rId2"/>
     <sheet name="IMf" sheetId="17" r:id="rId3"/>
     <sheet name="OMf" sheetId="18" r:id="rId4"/>
-    <sheet name="Constants" sheetId="3" r:id="rId5"/>
+    <sheet name="Const." sheetId="3" r:id="rId5"/>
     <sheet name="TRn" sheetId="16" r:id="rId6"/>
     <sheet name="MassBalance" sheetId="19" r:id="rId7"/>
     <sheet name="DataF" sheetId="1" r:id="rId8"/>
     <sheet name="Dict (i=8)" sheetId="5" r:id="rId9"/>
     <sheet name="Pif" sheetId="6" r:id="rId10"/>
-    <sheet name="CIF from Supplier M1" sheetId="8" r:id="rId11"/>
-    <sheet name="CIF from Supplier M2" sheetId="9" r:id="rId12"/>
-    <sheet name="CIF from Supplier M3" sheetId="10" r:id="rId13"/>
-    <sheet name="CIF from Supplier M4" sheetId="11" r:id="rId14"/>
-    <sheet name="CIF from Supplier M6" sheetId="12" r:id="rId15"/>
-    <sheet name="CIF from Supplier M7" sheetId="13" r:id="rId16"/>
-    <sheet name="CIF between facilities M5" sheetId="14" r:id="rId17"/>
-    <sheet name="Timing Model" sheetId="2" r:id="rId18"/>
+    <sheet name="CIF1sf" sheetId="8" r:id="rId11"/>
+    <sheet name="CIF2sf" sheetId="20" r:id="rId12"/>
+    <sheet name="CIF3sf" sheetId="21" r:id="rId13"/>
+    <sheet name="CIF4sf" sheetId="22" r:id="rId14"/>
+    <sheet name="CIF5sf" sheetId="23" r:id="rId15"/>
+    <sheet name="CIF6sf" sheetId="24" r:id="rId16"/>
+    <sheet name="CIF7sf" sheetId="25" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
-  <si>
-    <t>facility f</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>min expansion qLf</t>
   </si>
@@ -64,40 +60,7 @@
     <t>corporate tax TRn</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>supplier s</t>
-  </si>
-  <si>
-    <t>Basic Charge</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
     <t>Sum</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>facilities from</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
   <si>
     <t>IF</t>
@@ -150,6 +113,9 @@
   <si>
     <t>Percentage of Monopoly D</t>
   </si>
+  <si>
+    <t>s/f</t>
+  </si>
 </sst>
 </file>
 
@@ -176,12 +142,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -223,26 +201,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -630,618 +611,618 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.5546875" style="2"/>
+    <col min="1" max="5" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>19</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>20</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>21</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>23</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>24</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>31</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>32</v>
       </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1257,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1254,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -1585,609 +1566,311 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="8.77734375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>0.7</v>
-      </c>
-      <c r="L2">
-        <v>0.7</v>
-      </c>
-      <c r="M2">
-        <v>0.6</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="P2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
-        <v>1.6</v>
-      </c>
-      <c r="R2">
-        <v>1.6</v>
-      </c>
-      <c r="S2">
-        <v>1.3</v>
-      </c>
-      <c r="T2">
-        <v>1.3</v>
-      </c>
-      <c r="U2">
-        <v>1.7</v>
-      </c>
-      <c r="V2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I1" s="14">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
+      <c r="K1" s="14">
         <v>10</v>
       </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>17</v>
-      </c>
-      <c r="T3">
-        <v>18</v>
-      </c>
-      <c r="U3">
-        <v>19</v>
-      </c>
-      <c r="V3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C2" s="13">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>5.3999999999999992E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.115</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2.52E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2.87E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J3" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>A4*$C$2</f>
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999992E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999992E-2</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5199999999999997E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5199999999999997E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1599999999999998E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1599999999999998E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1199999999999991E-2</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1199999999999991E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="K3" s="4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="13">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <f>$A$5*C2</f>
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5100000000000008E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5100000000000008E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.1499999999999999E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.1499999999999999E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.87E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.87E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.46E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.46E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6900000000000002E-2</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6900000000000002E-2</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3300000000000007E-2</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3300000000000007E-2</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.9699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="E4" s="4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.123</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>5.74E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>24</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F5" s="13">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f>$A$6*C2</f>
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>9.0200000000000016E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>9.0200000000000016E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.123</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.123</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.74E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.74E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="2"/>
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13120000000000001</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13120000000000001</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10660000000000001</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10660000000000001</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1394</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="G5" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3.85E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="C6" s="13">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.112</v>
+      </c>
+      <c r="G6" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f>$A$7*C2</f>
-        <v>4.4000000000000004E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>4.4000000000000004E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.0500000000000005E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.0500000000000005E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.75E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.75E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.85E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.85E-2</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="3"/>
-        <v>7.1500000000000008E-2</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="3"/>
-        <v>7.1500000000000008E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.35E-2</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.35E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f>$A$8*C2</f>
-        <v>0.06</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
+      <c r="H6" s="13">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="4"/>
+      <c r="I6" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="4"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="4"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1275</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1275</v>
-      </c>
+      <c r="J6" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2196,609 +1879,361 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="8.77734375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>0.7</v>
-      </c>
-      <c r="L2">
-        <v>0.7</v>
-      </c>
-      <c r="M2">
-        <v>0.6</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="P2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
-        <v>1.6</v>
-      </c>
-      <c r="R2">
-        <v>1.6</v>
-      </c>
-      <c r="S2">
-        <v>1.3</v>
-      </c>
-      <c r="T2">
-        <v>1.3</v>
-      </c>
-      <c r="U2">
-        <v>1.7</v>
-      </c>
-      <c r="V2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>17</v>
-      </c>
-      <c r="T3">
-        <v>18</v>
-      </c>
-      <c r="U3">
-        <v>19</v>
-      </c>
-      <c r="V3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>A4*$C$2</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7500000000000004E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7500000000000004E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7499999999999998E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7499999999999998E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2500000000000003E-2</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2500000000000003E-2</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>21</v>
+      </c>
+      <c r="B2" s="15">
+        <f>1.2*CIF1sf!B2</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C2" s="13">
+        <f>1.2*CIF1sf!C2</f>
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <f>1.2*CIF1sf!D2</f>
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <f>1.2*CIF1sf!E2</f>
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <f>1.2*CIF1sf!F2</f>
+        <v>6.4799999999999983E-2</v>
+      </c>
+      <c r="G2" s="13">
+        <f>1.2*CIF1sf!G2</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="H2" s="13">
+        <f>1.2*CIF1sf!H2</f>
+        <v>3.024E-2</v>
+      </c>
+      <c r="I2" s="13">
+        <f>1.2*CIF1sf!I2</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J2" s="13">
+        <f>1.2*CIF1sf!J2</f>
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="K2" s="13">
+        <f>1.2*CIF1sf!K2</f>
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13">
+        <f>1.2*CIF1sf!B3</f>
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="C3" s="13">
+        <f>1.2*CIF1sf!C3</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <f>1.2*CIF1sf!D3</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <f>1.2*CIF1sf!E3</f>
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <f>1.2*CIF1sf!F3</f>
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <f>1.2*CIF1sf!G3</f>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="H3" s="13">
+        <f>1.2*CIF1sf!H3</f>
+        <v>3.4439999999999998E-2</v>
+      </c>
+      <c r="I3" s="13">
+        <f>1.2*CIF1sf!I3</f>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="J3" s="13">
+        <f>1.2*CIF1sf!J3</f>
+        <v>4.3199999999999995E-2</v>
+      </c>
+      <c r="K3" s="13">
+        <f>1.2*CIF1sf!K3</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13">
+        <f>1.2*CIF1sf!B4</f>
         <v>7.8E-2</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <f>$A$5*C2</f>
-        <v>6.2400000000000004E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>6.2400000000000004E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.5800000000000001E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.5800000000000001E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.4599999999999996E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.4599999999999996E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.12480000000000001</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.12480000000000001</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1014</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1014</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1326</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f>$A$6*C2</f>
-        <v>7.6000000000000012E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>7.6000000000000012E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10450000000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10450000000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14250000000000002</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14250000000000002</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.649999999999999E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.649999999999999E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15200000000000002</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15200000000000002</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12350000000000001</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12350000000000001</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1615</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f>$A$7*C2</f>
-        <v>4.24E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>4.24E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.8300000000000005E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.8300000000000005E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7099999999999994E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7099999999999994E-2</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1799999999999995E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1799999999999995E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.48E-2</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.48E-2</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.01E-2</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.01E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f>$A$8*C2</f>
-        <v>3.8400000000000004E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>3.8400000000000004E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.2800000000000007E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.2800000000000007E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.6800000000000007E-2</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.6800000000000007E-2</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.2400000000000004E-2</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.2400000000000004E-2</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.1600000000000006E-2</v>
-      </c>
+      <c r="C4" s="13">
+        <f>1.2*CIF1sf!C4</f>
+        <v>0.108</v>
+      </c>
+      <c r="D4" s="13">
+        <f>1.2*CIF1sf!D4</f>
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <f>1.2*CIF1sf!E4</f>
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <f>1.2*CIF1sf!F4</f>
+        <v>0.14759999999999998</v>
+      </c>
+      <c r="G4" s="15">
+        <f>1.2*CIF1sf!G4</f>
+        <v>2.2799999999999997E-2</v>
+      </c>
+      <c r="H4" s="13">
+        <f>1.2*CIF1sf!H4</f>
+        <v>6.8879999999999997E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <f>1.2*CIF1sf!I4</f>
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <f>1.2*CIF1sf!J4</f>
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="K4" s="13">
+        <f>1.2*CIF1sf!K4</f>
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>24</v>
+      </c>
+      <c r="B5" s="13">
+        <f>1.2*CIF1sf!B5</f>
+        <v>5.2799999999999993E-2</v>
+      </c>
+      <c r="C5" s="13">
+        <f>1.2*CIF1sf!C5</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <f>1.2*CIF1sf!D5</f>
+        <v>4.4399999999999995E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <f>1.2*CIF1sf!E5</f>
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <f>1.2*CIF1sf!F5</f>
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="G5" s="13">
+        <f>1.2*CIF1sf!G5</f>
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <f>1.2*CIF1sf!H5</f>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <f>1.2*CIF1sf!I5</f>
+        <v>1.44E-2</v>
+      </c>
+      <c r="J5" s="13">
+        <f>1.2*CIF1sf!J5</f>
+        <v>0.11399999999999999</v>
+      </c>
+      <c r="K5" s="13">
+        <f>1.2*CIF1sf!K5</f>
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13">
+        <f>1.2*CIF1sf!B6</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C6" s="13">
+        <f>1.2*CIF1sf!C6</f>
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <f>1.2*CIF1sf!D6</f>
+        <v>4.4399999999999995E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f>1.2*CIF1sf!E6</f>
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <f>1.2*CIF1sf!F6</f>
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="G6" s="13">
+        <f>1.2*CIF1sf!G6</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <f>1.2*CIF1sf!H6</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <f>1.2*CIF1sf!I6</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J6" s="15">
+        <f>1.2*CIF1sf!J6</f>
+        <v>2.52E-2</v>
+      </c>
+      <c r="K6" s="13">
+        <f>1.2*CIF1sf!K6</f>
+        <v>0.15</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2807,609 +2242,361 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="8.77734375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>0.7</v>
-      </c>
-      <c r="L2">
-        <v>0.7</v>
-      </c>
-      <c r="M2">
-        <v>0.6</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="P2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
-        <v>1.6</v>
-      </c>
-      <c r="R2">
-        <v>1.6</v>
-      </c>
-      <c r="S2">
-        <v>1.3</v>
-      </c>
-      <c r="T2">
-        <v>1.3</v>
-      </c>
-      <c r="U2">
-        <v>1.7</v>
-      </c>
-      <c r="V2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
+      <c r="K1" s="14">
         <v>10</v>
       </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>17</v>
-      </c>
-      <c r="T3">
-        <v>18</v>
-      </c>
-      <c r="U3">
-        <v>19</v>
-      </c>
-      <c r="V3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>21</v>
+      </c>
+      <c r="B2" s="15">
+        <f>0.8*CIF1sf!B2</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C2" s="13">
+        <f>0.8*CIF1sf!C2</f>
+        <v>3.1200000000000002E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <f>0.8*CIF1sf!D2</f>
+        <v>3.1200000000000002E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <f>0.8*CIF1sf!E2</f>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <f>0.8*CIF1sf!F2</f>
+        <v>4.3199999999999995E-2</v>
+      </c>
+      <c r="G2" s="13">
+        <f>0.8*CIF1sf!G2</f>
+        <v>9.2000000000000012E-2</v>
+      </c>
+      <c r="H2" s="13">
+        <f>0.8*CIF1sf!H2</f>
+        <v>2.0160000000000001E-2</v>
+      </c>
+      <c r="I2" s="13">
+        <f>0.8*CIF1sf!I2</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J2" s="13">
+        <f>0.8*CIF1sf!J2</f>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="K2" s="13">
+        <f>0.8*CIF1sf!K2</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13">
+        <f>0.8*CIF1sf!B3</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="C3" s="13">
+        <f>0.8*CIF1sf!C3</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <f>0.8*CIF1sf!D3</f>
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <f>0.8*CIF1sf!E3</f>
+        <v>1.04E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <f>0.8*CIF1sf!F3</f>
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <f>0.8*CIF1sf!G3</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H3" s="13">
+        <f>0.8*CIF1sf!H3</f>
+        <v>2.2960000000000001E-2</v>
+      </c>
+      <c r="I3" s="13">
+        <f>0.8*CIF1sf!I3</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J3" s="13">
+        <f>0.8*CIF1sf!J3</f>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="K3" s="13">
+        <f>0.8*CIF1sf!K3</f>
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13">
+        <f>0.8*CIF1sf!B4</f>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <f>0.8*CIF1sf!C4</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <f>0.8*CIF1sf!D4</f>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <f>0.8*CIF1sf!E4</f>
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <f>0.8*CIF1sf!F4</f>
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="G4" s="15">
+        <f>0.8*CIF1sf!G4</f>
+        <v>1.52E-2</v>
+      </c>
+      <c r="H4" s="13">
+        <f>0.8*CIF1sf!H4</f>
+        <v>4.5920000000000002E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <f>0.8*CIF1sf!I4</f>
+        <v>4.9600000000000005E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <f>0.8*CIF1sf!J4</f>
+        <v>4.6400000000000004E-2</v>
+      </c>
+      <c r="K4" s="13">
+        <f>0.8*CIF1sf!K4</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>24</v>
+      </c>
+      <c r="B5" s="13">
+        <f>0.8*CIF1sf!B5</f>
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="C5" s="13">
+        <f>0.8*CIF1sf!C5</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <f>0.8*CIF1sf!D5</f>
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <f>0.8*CIF1sf!E5</f>
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <f>0.8*CIF1sf!F5</f>
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="G5" s="13">
+        <f>0.8*CIF1sf!G5</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <f>0.8*CIF1sf!H5</f>
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <f>0.8*CIF1sf!I5</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="J5" s="13">
+        <f>0.8*CIF1sf!J5</f>
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="K5" s="13">
+        <f>0.8*CIF1sf!K5</f>
+        <v>2.4800000000000003E-2</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13">
+        <f>0.8*CIF1sf!B6</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C6" s="13">
+        <f>0.8*CIF1sf!C6</f>
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <f>0.8*CIF1sf!D6</f>
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f>0.8*CIF1sf!E6</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <f>0.8*CIF1sf!F6</f>
+        <v>8.9600000000000013E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <f>0.8*CIF1sf!G6</f>
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <f>0.8*CIF1sf!H6</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>A4*$C$2</f>
-        <v>3.3600000000000005E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>3.3600000000000005E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6200000000000005E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6200000000000005E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3E-2</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.52E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.52E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.78E-2</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.78E-2</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.720000000000001E-2</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.720000000000001E-2</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="0"/>
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="0"/>
-        <v>7.1400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <f>$A$5*C2</f>
-        <v>4.4800000000000006E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>4.4800000000000006E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.1600000000000009E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.1600000000000009E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.04E-2</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.04E-2</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.9600000000000013E-2</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.9600000000000013E-2</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.5199999999999993E-2</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.5199999999999993E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f>$A$6*C2</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>9.3500000000000014E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>9.3500000000000014E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1275</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1275</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.9499999999999997E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.9499999999999997E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1000000000000004E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1000000000000004E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>7.6500000000000012E-2</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="2"/>
-        <v>7.6500000000000012E-2</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11050000000000001</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11050000000000001</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14450000000000002</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14450000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f>$A$7*C2</f>
+      <c r="I6" s="13">
+        <f>0.8*CIF1sf!I6</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J6" s="15">
+        <f>0.8*CIF1sf!J6</f>
         <v>1.6800000000000002E-2</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>1.6800000000000002E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3100000000000002E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3100000000000002E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.15E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.15E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.47E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.47E-2</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.26E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.26E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.89E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.89E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3600000000000005E-2</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3600000000000005E-2</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.5700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.105</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f>$A$8*C2</f>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.11550000000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.11550000000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1575</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1575</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.13650000000000001</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.13650000000000001</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.17849999999999999</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.17849999999999999</v>
-      </c>
+      <c r="K6" s="13">
+        <f>0.8*CIF1sf!K6</f>
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3418,609 +2605,361 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B2" sqref="B2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="8.77734375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>0.7</v>
-      </c>
-      <c r="L2">
-        <v>0.7</v>
-      </c>
-      <c r="M2">
-        <v>0.6</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="P2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
-        <v>1.6</v>
-      </c>
-      <c r="R2">
-        <v>1.6</v>
-      </c>
-      <c r="S2">
-        <v>1.3</v>
-      </c>
-      <c r="T2">
-        <v>1.3</v>
-      </c>
-      <c r="U2">
-        <v>1.7</v>
-      </c>
-      <c r="V2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
+      <c r="K1" s="14">
         <v>10</v>
       </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>17</v>
-      </c>
-      <c r="T3">
-        <v>18</v>
-      </c>
-      <c r="U3">
-        <v>19</v>
-      </c>
-      <c r="V3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>6.3E-2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>A4*$C$2</f>
-        <v>5.04E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>5.04E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.93E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.93E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>21</v>
+      </c>
+      <c r="B2" s="15">
+        <f>1.5*CIF1sf!B2</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C2" s="13">
+        <f>1.5*CIF1sf!C2</f>
+        <v>5.8499999999999996E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <f>1.5*CIF1sf!D2</f>
+        <v>5.8499999999999996E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <f>1.5*CIF1sf!E2</f>
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <f>1.5*CIF1sf!F2</f>
+        <v>8.0999999999999989E-2</v>
+      </c>
+      <c r="G2" s="13">
+        <f>1.5*CIF1sf!G2</f>
+        <v>0.17250000000000001</v>
+      </c>
+      <c r="H2" s="13">
+        <f>1.5*CIF1sf!H2</f>
+        <v>3.78E-2</v>
+      </c>
+      <c r="I2" s="13">
+        <f>1.5*CIF1sf!I2</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="J2" s="13">
+        <f>1.5*CIF1sf!J2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="K2" s="13">
+        <f>1.5*CIF1sf!K2</f>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13">
+        <f>1.5*CIF1sf!B3</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C3" s="13">
+        <f>1.5*CIF1sf!C3</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <f>1.5*CIF1sf!D3</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <f>1.5*CIF1sf!E3</f>
+        <v>1.95E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <f>1.5*CIF1sf!F3</f>
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <f>1.5*CIF1sf!G3</f>
+        <v>0.1275</v>
+      </c>
+      <c r="H3" s="13">
+        <f>1.5*CIF1sf!H3</f>
+        <v>4.3049999999999998E-2</v>
+      </c>
+      <c r="I3" s="13">
+        <f>1.5*CIF1sf!I3</f>
+        <v>0.1275</v>
+      </c>
+      <c r="J3" s="13">
+        <f>1.5*CIF1sf!J3</f>
+        <v>5.3999999999999992E-2</v>
+      </c>
+      <c r="K3" s="13">
+        <f>1.5*CIF1sf!K3</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13">
+        <f>1.5*CIF1sf!B4</f>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <f>1.5*CIF1sf!C4</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D4" s="13">
+        <f>1.5*CIF1sf!D4</f>
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <f>1.5*CIF1sf!E4</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <f>1.5*CIF1sf!F4</f>
+        <v>0.1845</v>
+      </c>
+      <c r="G4" s="15">
+        <f>1.5*CIF1sf!G4</f>
+        <v>2.8499999999999998E-2</v>
+      </c>
+      <c r="H4" s="13">
+        <f>1.5*CIF1sf!H4</f>
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <f>1.5*CIF1sf!I4</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <f>1.5*CIF1sf!J4</f>
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="K4" s="13">
+        <f>1.5*CIF1sf!K4</f>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>24</v>
+      </c>
+      <c r="B5" s="13">
+        <f>1.5*CIF1sf!B5</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C5" s="13">
+        <f>1.5*CIF1sf!C5</f>
+        <v>0.09</v>
+      </c>
+      <c r="D5" s="13">
+        <f>1.5*CIF1sf!D5</f>
+        <v>5.5499999999999994E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <f>1.5*CIF1sf!E5</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <f>1.5*CIF1sf!F5</f>
+        <v>0.123</v>
+      </c>
+      <c r="G5" s="13">
+        <f>1.5*CIF1sf!G5</f>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="H5" s="13">
+        <f>1.5*CIF1sf!H5</f>
+        <v>5.7749999999999996E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <f>1.5*CIF1sf!I5</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="J5" s="13">
+        <f>1.5*CIF1sf!J5</f>
+        <v>0.14250000000000002</v>
+      </c>
+      <c r="K5" s="13">
+        <f>1.5*CIF1sf!K5</f>
+        <v>4.65E-2</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13">
+        <f>1.5*CIF1sf!B6</f>
+        <v>0.09</v>
+      </c>
+      <c r="C6" s="13">
+        <f>1.5*CIF1sf!C6</f>
+        <v>0.123</v>
+      </c>
+      <c r="D6" s="13">
+        <f>1.5*CIF1sf!D6</f>
+        <v>5.5499999999999994E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f>1.5*CIF1sf!E6</f>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <f>1.5*CIF1sf!F6</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G6" s="13">
+        <f>1.5*CIF1sf!G6</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <f>1.5*CIF1sf!H6</f>
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <f>1.5*CIF1sf!I6</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="J6" s="15">
+        <f>1.5*CIF1sf!J6</f>
         <v>3.15E-2</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.15E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.78E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.78E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.67E-2</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.67E-2</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1008</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1008</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1071</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2.4E-2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <f>$A$5*C2</f>
-        <v>1.9200000000000002E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>1.9200000000000002E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6400000000000003E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6400000000000003E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.44E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.44E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.8400000000000004E-2</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.8400000000000004E-2</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1200000000000002E-2</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1200000000000002E-2</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.0800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f>$A$6*C2</f>
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10010000000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10010000000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13650000000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13650000000000001</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.3699999999999993E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.3699999999999993E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.4599999999999996E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.4599999999999996E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14560000000000001</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14560000000000001</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1183</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1183</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1547</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f>$A$7*C2</f>
-        <v>3.8400000000000004E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>3.8400000000000004E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.2800000000000007E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.2800000000000007E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>7.6800000000000007E-2</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="3"/>
-        <v>7.6800000000000007E-2</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.2400000000000004E-2</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.2400000000000004E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.1600000000000006E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f>$A$8*C2</f>
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.6100000000000004E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.6100000000000004E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.5699999999999996E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.5699999999999996E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.0599999999999995E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.0599999999999995E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.5899999999999996E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.5899999999999996E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.6699999999999985E-2</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.6699999999999985E-2</v>
-      </c>
+      <c r="K6" s="13">
+        <f>1.5*CIF1sf!K6</f>
+        <v>0.1875</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4029,608 +2968,405 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="4"/>
+    <col min="2" max="12" width="8.77734375" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14">
+        <v>11</v>
+      </c>
+      <c r="C1" s="14">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>0.7</v>
-      </c>
-      <c r="L2">
-        <v>0.7</v>
-      </c>
-      <c r="M2">
-        <v>0.6</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="P2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
-        <v>1.6</v>
-      </c>
-      <c r="R2">
-        <v>1.6</v>
-      </c>
-      <c r="S2">
-        <v>1.3</v>
-      </c>
-      <c r="T2">
-        <v>1.3</v>
-      </c>
-      <c r="U2">
-        <v>1.7</v>
-      </c>
-      <c r="V2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D1" s="14">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14">
+        <v>14</v>
+      </c>
+      <c r="F1" s="14">
+        <v>15</v>
+      </c>
+      <c r="G1" s="14">
+        <v>16</v>
+      </c>
+      <c r="H1" s="14">
+        <v>17</v>
+      </c>
+      <c r="I1" s="14">
+        <v>18</v>
+      </c>
+      <c r="J1" s="14">
+        <v>19</v>
+      </c>
+      <c r="K1" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J2" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H3" s="13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I3" s="13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K3" s="13">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K4" s="13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G5" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I5" s="13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K5" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I7" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K7" s="13">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C8" s="13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J8" s="13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K8" s="13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G9" s="13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K9" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
+      <c r="B10" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C10" s="13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I10" s="13">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>17</v>
-      </c>
-      <c r="T3">
-        <v>18</v>
-      </c>
-      <c r="U3">
-        <v>19</v>
-      </c>
-      <c r="V3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>A4*$C$2</f>
-        <v>0.06</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>0.06</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1275</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <f>$A$5*C2</f>
-        <v>4.24E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>4.24E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8300000000000005E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8300000000000005E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7099999999999994E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7099999999999994E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1799999999999995E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1799999999999995E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.48E-2</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.48E-2</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.01E-2</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.01E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.115</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f>$A$6*C2</f>
-        <v>9.2000000000000012E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>9.2000000000000012E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12650000000000003</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12650000000000003</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17250000000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17250000000000001</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10350000000000001</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10350000000000001</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18400000000000002</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18400000000000002</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14950000000000002</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14950000000000002</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19550000000000001</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19550000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6.2E-2</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f>$A$7*C2</f>
-        <v>4.9600000000000005E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>4.9600000000000005E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8200000000000011E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8200000000000011E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.3399999999999994E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.3399999999999994E-2</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.920000000000001E-2</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.920000000000001E-2</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.10539999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f>$A$8*C2</f>
-        <v>3.9200000000000006E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>3.9200000000000006E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.350000000000001E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.350000000000001E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="4"/>
-        <v>8.3299999999999999E-2</v>
+      <c r="B11" s="13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F11" s="13">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H11" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I11" s="13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J11" s="13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4640,609 +3376,361 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="8.77734375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>0.7</v>
-      </c>
-      <c r="L2">
-        <v>0.7</v>
-      </c>
-      <c r="M2">
-        <v>0.6</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="P2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
-        <v>1.6</v>
-      </c>
-      <c r="R2">
-        <v>1.6</v>
-      </c>
-      <c r="S2">
-        <v>1.3</v>
-      </c>
-      <c r="T2">
-        <v>1.3</v>
-      </c>
-      <c r="U2">
-        <v>1.7</v>
-      </c>
-      <c r="V2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
+      <c r="K1" s="14">
         <v>10</v>
       </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>17</v>
-      </c>
-      <c r="T3">
-        <v>18</v>
-      </c>
-      <c r="U3">
-        <v>19</v>
-      </c>
-      <c r="V3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>A4*$C$2</f>
-        <v>5.4400000000000004E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:V4" si="0">$A$4*D2</f>
-        <v>5.4400000000000004E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>21</v>
+      </c>
+      <c r="B2" s="15">
+        <f>0.4*CIF1sf!B2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="13">
+        <f>0.4*CIF1sf!C2</f>
+        <v>1.5600000000000001E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <f>0.4*CIF1sf!D2</f>
+        <v>1.5600000000000001E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <f>0.4*CIF1sf!E2</f>
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <f>0.4*CIF1sf!F2</f>
+        <v>2.1599999999999998E-2</v>
+      </c>
+      <c r="G2" s="13">
+        <f>0.4*CIF1sf!G2</f>
+        <v>4.6000000000000006E-2</v>
+      </c>
+      <c r="H2" s="13">
+        <f>0.4*CIF1sf!H2</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="I2" s="13">
+        <f>0.4*CIF1sf!I2</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J2" s="13">
+        <f>0.4*CIF1sf!J2</f>
+        <v>1.9200000000000002E-2</v>
+      </c>
+      <c r="K2" s="13">
+        <f>0.4*CIF1sf!K2</f>
+        <v>2.7200000000000002E-2</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13">
+        <f>0.4*CIF1sf!B3</f>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="C3" s="13">
+        <f>0.4*CIF1sf!C3</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <f>0.4*CIF1sf!D3</f>
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <f>0.4*CIF1sf!E3</f>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="F3" s="13">
+        <f>0.4*CIF1sf!F3</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <f>0.4*CIF1sf!G3</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
+      <c r="H3" s="13">
+        <f>0.4*CIF1sf!H3</f>
+        <v>1.1480000000000001E-2</v>
+      </c>
+      <c r="I3" s="13">
+        <f>0.4*CIF1sf!I3</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1200000000000004E-2</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1200000000000004E-2</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.10880000000000001</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.10880000000000001</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.8400000000000006E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.8400000000000006E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11560000000000001</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11560000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <f>$A$5*C2</f>
-        <v>3.9200000000000006E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:V5" si="1">$A$5*D2</f>
-        <v>3.9200000000000006E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.350000000000001E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.350000000000001E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.41E-2</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="1"/>
-        <v>8.3299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f>$A$6*C2</f>
-        <v>0.06</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:V6" si="2">$A$6*D2</f>
-        <v>0.06</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="2"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="2"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1275</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f>$A$7*C2</f>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:V7" si="3">$A$7*D2</f>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.10780000000000001</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.10780000000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.14700000000000002</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.14700000000000002</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.15680000000000002</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.15680000000000002</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.1666</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.1666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f>$A$8*C2</f>
-        <v>8.2400000000000001E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:V8" si="4">$A$8*D2</f>
-        <v>8.2400000000000001E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1133</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1133</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1545</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1545</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.2099999999999997E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.2099999999999997E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.1799999999999994E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.1799999999999994E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>9.2699999999999991E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>9.2699999999999991E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1648</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1648</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.17509999999999998</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.17509999999999998</v>
-      </c>
+      <c r="J3" s="13">
+        <f>0.4*CIF1sf!J3</f>
+        <v>1.44E-2</v>
+      </c>
+      <c r="K3" s="13">
+        <f>0.4*CIF1sf!K3</f>
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13">
+        <f>0.4*CIF1sf!B4</f>
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <f>0.4*CIF1sf!C4</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <f>0.4*CIF1sf!D4</f>
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <f>0.4*CIF1sf!E4</f>
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <f>0.4*CIF1sf!F4</f>
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="G4" s="15">
+        <f>0.4*CIF1sf!G4</f>
+        <v>7.6E-3</v>
+      </c>
+      <c r="H4" s="13">
+        <f>0.4*CIF1sf!H4</f>
+        <v>2.2960000000000001E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <f>0.4*CIF1sf!I4</f>
+        <v>2.4800000000000003E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <f>0.4*CIF1sf!J4</f>
+        <v>2.3200000000000002E-2</v>
+      </c>
+      <c r="K4" s="13">
+        <f>0.4*CIF1sf!K4</f>
+        <v>3.1200000000000002E-2</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>24</v>
+      </c>
+      <c r="B5" s="13">
+        <f>0.4*CIF1sf!B5</f>
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="C5" s="13">
+        <f>0.4*CIF1sf!C5</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <f>0.4*CIF1sf!D5</f>
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <f>0.4*CIF1sf!E5</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <f>0.4*CIF1sf!F5</f>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="G5" s="13">
+        <f>0.4*CIF1sf!G5</f>
+        <v>3.1200000000000002E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <f>0.4*CIF1sf!H5</f>
+        <v>1.54E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <f>0.4*CIF1sf!I5</f>
+        <v>4.8000000000000004E-3</v>
+      </c>
+      <c r="J5" s="13">
+        <f>0.4*CIF1sf!J5</f>
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="K5" s="13">
+        <f>0.4*CIF1sf!K5</f>
+        <v>1.2400000000000001E-2</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13">
+        <f>0.4*CIF1sf!B6</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="C6" s="13">
+        <f>0.4*CIF1sf!C6</f>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <f>0.4*CIF1sf!D6</f>
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f>0.4*CIF1sf!E6</f>
+        <v>3.1200000000000002E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <f>0.4*CIF1sf!F6</f>
+        <v>4.4800000000000006E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <f>0.4*CIF1sf!G6</f>
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <f>0.4*CIF1sf!H6</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <f>0.4*CIF1sf!I6</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J6" s="15">
+        <f>0.4*CIF1sf!J6</f>
+        <v>8.4000000000000012E-3</v>
+      </c>
+      <c r="K6" s="13">
+        <f>0.4*CIF1sf!K6</f>
+        <v>0.05</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5251,670 +3739,363 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="8.77734375" customWidth="1"/>
-    <col min="22" max="22" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="8.77734375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D1" s="14">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E1" s="14">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F1" s="14">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="G1" s="14">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="H1" s="14">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="I1" s="14">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="J1" s="14">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="K1" s="14">
         <v>10</v>
       </c>
-      <c r="L2">
-        <v>11</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>13</v>
-      </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
-      <c r="P2">
-        <v>15</v>
-      </c>
-      <c r="Q2">
-        <v>16</v>
-      </c>
-      <c r="R2">
-        <v>17</v>
-      </c>
-      <c r="S2">
-        <v>18</v>
-      </c>
-      <c r="T2">
-        <v>19</v>
-      </c>
-      <c r="U2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F3">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G3">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H3">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I3">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J3">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K3">
-        <v>3.9E-2</v>
-      </c>
-      <c r="L3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="N3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Q3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="R3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="S3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="T3">
-        <v>2.7E-2</v>
-      </c>
-      <c r="U3">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="L4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="N4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Q4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="R4">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="S4">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="T4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="U4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I5" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T5" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="U5" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T6" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="U6" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L7" s="1">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>21</v>
+      </c>
+      <c r="B2" s="15">
+        <f>0.8*CIF1sf!B2</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C2" s="13">
+        <f>0.8*CIF1sf!C2</f>
+        <v>3.1200000000000002E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <f>0.8*CIF1sf!D2</f>
+        <v>3.1200000000000002E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <f>0.8*CIF1sf!E2</f>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <f>0.8*CIF1sf!F2</f>
+        <v>4.3199999999999995E-2</v>
+      </c>
+      <c r="G2" s="13">
+        <f>0.8*CIF1sf!G2</f>
+        <v>9.2000000000000012E-2</v>
+      </c>
+      <c r="H2" s="13">
+        <f>0.8*CIF1sf!H2</f>
+        <v>2.0160000000000001E-2</v>
+      </c>
+      <c r="I2" s="13">
+        <f>0.8*CIF1sf!I2</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J2" s="13">
+        <f>0.8*CIF1sf!J2</f>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="K2" s="13">
+        <f>0.8*CIF1sf!K2</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13">
+        <f>0.8*CIF1sf!B3</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="C3" s="13">
+        <f>0.8*CIF1sf!C3</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <f>0.8*CIF1sf!D3</f>
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <f>0.8*CIF1sf!E3</f>
+        <v>1.04E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <f>0.8*CIF1sf!F3</f>
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <f>0.8*CIF1sf!G3</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H3" s="13">
+        <f>0.8*CIF1sf!H3</f>
+        <v>2.2960000000000001E-2</v>
+      </c>
+      <c r="I3" s="13">
+        <f>0.8*CIF1sf!I3</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J3" s="13">
+        <f>0.8*CIF1sf!J3</f>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="K3" s="13">
+        <f>0.8*CIF1sf!K3</f>
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13">
+        <f>0.8*CIF1sf!B4</f>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <f>0.8*CIF1sf!C4</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <f>0.8*CIF1sf!D4</f>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <f>0.8*CIF1sf!E4</f>
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <f>0.8*CIF1sf!F4</f>
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="G4" s="15">
+        <f>0.8*CIF1sf!G4</f>
+        <v>1.52E-2</v>
+      </c>
+      <c r="H4" s="13">
+        <f>0.8*CIF1sf!H4</f>
+        <v>4.5920000000000002E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <f>0.8*CIF1sf!I4</f>
+        <v>4.9600000000000005E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <f>0.8*CIF1sf!J4</f>
+        <v>4.6400000000000004E-2</v>
+      </c>
+      <c r="K4" s="13">
+        <f>0.8*CIF1sf!K4</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>24</v>
+      </c>
+      <c r="B5" s="13">
+        <f>0.8*CIF1sf!B5</f>
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="C5" s="13">
+        <f>0.8*CIF1sf!C5</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="D5" s="13">
+        <f>0.8*CIF1sf!D5</f>
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <f>0.8*CIF1sf!E5</f>
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <f>0.8*CIF1sf!F5</f>
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="G5" s="13">
+        <f>0.8*CIF1sf!G5</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <f>0.8*CIF1sf!H5</f>
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <f>0.8*CIF1sf!I5</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="J5" s="13">
+        <f>0.8*CIF1sf!J5</f>
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="K5" s="13">
+        <f>0.8*CIF1sf!K5</f>
+        <v>2.4800000000000003E-2</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13">
+        <f>0.8*CIF1sf!B6</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="N7" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="R7" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S7" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="T7" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="R8" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S8" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="T8" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="U8" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="O9" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="P9" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="R9" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S9" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="T9" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="U9" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M10" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="P10" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="R10" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S10" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="T10" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="U10" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
+      <c r="C6" s="13">
+        <f>0.8*CIF1sf!C6</f>
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <f>0.8*CIF1sf!D6</f>
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f>0.8*CIF1sf!E6</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <f>0.8*CIF1sf!F6</f>
+        <v>8.9600000000000013E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <f>0.8*CIF1sf!G6</f>
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <f>0.8*CIF1sf!H6</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <f>0.8*CIF1sf!I6</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J6" s="15">
+        <f>0.8*CIF1sf!J6</f>
+        <v>1.6800000000000002E-2</v>
+      </c>
+      <c r="K6" s="13">
+        <f>0.8*CIF1sf!K6</f>
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5927,7 +4108,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5943,7 +4124,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -7130,7 +5311,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -8185,7 +6366,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -9224,7 +7405,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9234,24 +7415,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -9277,10 +7458,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9392,7 +7573,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -10456,19 +8637,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -10839,7 +9020,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7">
@@ -10853,19 +9034,19 @@
     </row>
     <row r="2" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">

--- a/Capacity_Planning/lib/CaseData.xlsx
+++ b/Capacity_Planning/lib/CaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="5" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="15" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="CIF5sf" sheetId="23" r:id="rId15"/>
     <sheet name="CIF6sf" sheetId="24" r:id="rId16"/>
     <sheet name="CIF7sf" sheetId="25" r:id="rId17"/>
+    <sheet name="IDisf" sheetId="26" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>min expansion qLf</t>
   </si>
@@ -201,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +225,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3382,7 +3386,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K6"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3744,8 +3748,8 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4094,6 +4098,1069 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:U16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="16"/>
+    <col min="2" max="21" width="8.77734375" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="16">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16">
+        <v>8</v>
+      </c>
+      <c r="J1" s="16">
+        <v>9</v>
+      </c>
+      <c r="K1" s="16">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16">
+        <v>12</v>
+      </c>
+      <c r="N1" s="16">
+        <v>13</v>
+      </c>
+      <c r="O1" s="16">
+        <v>14</v>
+      </c>
+      <c r="P1" s="16">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>16</v>
+      </c>
+      <c r="R1" s="16">
+        <v>17</v>
+      </c>
+      <c r="S1" s="16">
+        <v>18</v>
+      </c>
+      <c r="T1" s="16">
+        <v>19</v>
+      </c>
+      <c r="U1" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7448,7 +8515,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7469,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7477,7 +8544,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7485,7 +8552,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7493,7 +8560,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7501,7 +8568,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7517,7 +8584,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7525,7 +8592,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7533,7 +8600,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7541,7 +8608,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>

--- a/Capacity_Planning/lib/CaseData.xlsx
+++ b/Capacity_Planning/lib/CaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="5" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="15" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="MassBalance" sheetId="19" r:id="rId7"/>
     <sheet name="DataF" sheetId="1" r:id="rId8"/>
     <sheet name="Dict (i=8)" sheetId="5" r:id="rId9"/>
-    <sheet name="Pif" sheetId="6" r:id="rId10"/>
-    <sheet name="CIF1sf" sheetId="8" r:id="rId11"/>
-    <sheet name="CIF2sf" sheetId="20" r:id="rId12"/>
-    <sheet name="CIF3sf" sheetId="21" r:id="rId13"/>
-    <sheet name="CIF4sf" sheetId="22" r:id="rId14"/>
-    <sheet name="CIF5sf" sheetId="23" r:id="rId15"/>
-    <sheet name="CIF6sf" sheetId="24" r:id="rId16"/>
-    <sheet name="CIF7sf" sheetId="25" r:id="rId17"/>
-    <sheet name="IDisf" sheetId="26" r:id="rId18"/>
+    <sheet name="Sis" sheetId="27" r:id="rId10"/>
+    <sheet name="Pif" sheetId="6" r:id="rId11"/>
+    <sheet name="CIF1sf" sheetId="8" r:id="rId12"/>
+    <sheet name="CIF2sf" sheetId="20" r:id="rId13"/>
+    <sheet name="CIF3sf" sheetId="21" r:id="rId14"/>
+    <sheet name="CIF4sf" sheetId="22" r:id="rId15"/>
+    <sheet name="CIF5sf" sheetId="23" r:id="rId16"/>
+    <sheet name="CIF6sf" sheetId="24" r:id="rId17"/>
+    <sheet name="CIF7sf" sheetId="25" r:id="rId18"/>
+    <sheet name="IDisf" sheetId="26" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>min expansion qLf</t>
   </si>
@@ -116,6 +117,9 @@
   </si>
   <si>
     <t>s/f</t>
+  </si>
+  <si>
+    <t>i/s</t>
   </si>
 </sst>
 </file>
@@ -609,8 +613,8 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,6 +1240,164 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16">
+        <v>21</v>
+      </c>
+      <c r="C1" s="16">
+        <v>22</v>
+      </c>
+      <c r="D1" s="16">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16">
+        <v>24</v>
+      </c>
+      <c r="F1" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>200</v>
+      </c>
+      <c r="C2" s="3">
+        <v>110</v>
+      </c>
+      <c r="D2" s="3">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>150</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>120</v>
+      </c>
+      <c r="E3" s="3">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3">
+        <v>140</v>
+      </c>
+      <c r="D4" s="3">
+        <v>140</v>
+      </c>
+      <c r="E4" s="3">
+        <v>190</v>
+      </c>
+      <c r="F4" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>180</v>
+      </c>
+      <c r="C5" s="3">
+        <v>160</v>
+      </c>
+      <c r="D5" s="3">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3">
+        <v>140</v>
+      </c>
+      <c r="F5" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3">
+        <v>170</v>
+      </c>
+      <c r="D6" s="3">
+        <v>150</v>
+      </c>
+      <c r="E6" s="3">
+        <v>110</v>
+      </c>
+      <c r="F6" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>150</v>
+      </c>
+      <c r="C7" s="3">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3">
+        <v>140</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1568,7 +1730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
@@ -1809,369 +1971,6 @@
       </c>
       <c r="K6" s="4">
         <v>0.125</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:Q12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="11" width="8.77734375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="14">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14">
-        <v>5</v>
-      </c>
-      <c r="G1" s="14">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14">
-        <v>7</v>
-      </c>
-      <c r="I1" s="14">
-        <v>8</v>
-      </c>
-      <c r="J1" s="14">
-        <v>9</v>
-      </c>
-      <c r="K1" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
-        <v>21</v>
-      </c>
-      <c r="B2" s="15">
-        <f>1.2*CIF1sf!B2</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C2" s="13">
-        <f>1.2*CIF1sf!C2</f>
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="D2" s="13">
-        <f>1.2*CIF1sf!D2</f>
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="E2" s="13">
-        <f>1.2*CIF1sf!E2</f>
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="F2" s="13">
-        <f>1.2*CIF1sf!F2</f>
-        <v>6.4799999999999983E-2</v>
-      </c>
-      <c r="G2" s="13">
-        <f>1.2*CIF1sf!G2</f>
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="H2" s="13">
-        <f>1.2*CIF1sf!H2</f>
-        <v>3.024E-2</v>
-      </c>
-      <c r="I2" s="13">
-        <f>1.2*CIF1sf!I2</f>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="J2" s="13">
-        <f>1.2*CIF1sf!J2</f>
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="K2" s="13">
-        <f>1.2*CIF1sf!K2</f>
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
-        <v>22</v>
-      </c>
-      <c r="B3" s="13">
-        <f>1.2*CIF1sf!B3</f>
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="C3" s="13">
-        <f>1.2*CIF1sf!C3</f>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="D3" s="13">
-        <f>1.2*CIF1sf!D3</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="E3" s="15">
-        <f>1.2*CIF1sf!E3</f>
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="F3" s="13">
-        <f>1.2*CIF1sf!F3</f>
-        <v>7.3200000000000001E-2</v>
-      </c>
-      <c r="G3" s="13">
-        <f>1.2*CIF1sf!G3</f>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="H3" s="13">
-        <f>1.2*CIF1sf!H3</f>
-        <v>3.4439999999999998E-2</v>
-      </c>
-      <c r="I3" s="13">
-        <f>1.2*CIF1sf!I3</f>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="J3" s="13">
-        <f>1.2*CIF1sf!J3</f>
-        <v>4.3199999999999995E-2</v>
-      </c>
-      <c r="K3" s="13">
-        <f>1.2*CIF1sf!K3</f>
-        <v>6.4799999999999996E-2</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>23</v>
-      </c>
-      <c r="B4" s="13">
-        <f>1.2*CIF1sf!B4</f>
-        <v>7.8E-2</v>
-      </c>
-      <c r="C4" s="13">
-        <f>1.2*CIF1sf!C4</f>
-        <v>0.108</v>
-      </c>
-      <c r="D4" s="13">
-        <f>1.2*CIF1sf!D4</f>
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="E4" s="13">
-        <f>1.2*CIF1sf!E4</f>
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="F4" s="13">
-        <f>1.2*CIF1sf!F4</f>
-        <v>0.14759999999999998</v>
-      </c>
-      <c r="G4" s="15">
-        <f>1.2*CIF1sf!G4</f>
-        <v>2.2799999999999997E-2</v>
-      </c>
-      <c r="H4" s="13">
-        <f>1.2*CIF1sf!H4</f>
-        <v>6.8879999999999997E-2</v>
-      </c>
-      <c r="I4" s="13">
-        <f>1.2*CIF1sf!I4</f>
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="J4" s="13">
-        <f>1.2*CIF1sf!J4</f>
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="K4" s="13">
-        <f>1.2*CIF1sf!K4</f>
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>24</v>
-      </c>
-      <c r="B5" s="13">
-        <f>1.2*CIF1sf!B5</f>
-        <v>5.2799999999999993E-2</v>
-      </c>
-      <c r="C5" s="13">
-        <f>1.2*CIF1sf!C5</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D5" s="13">
-        <f>1.2*CIF1sf!D5</f>
-        <v>4.4399999999999995E-2</v>
-      </c>
-      <c r="E5" s="13">
-        <f>1.2*CIF1sf!E5</f>
-        <v>7.6799999999999993E-2</v>
-      </c>
-      <c r="F5" s="13">
-        <f>1.2*CIF1sf!F5</f>
-        <v>9.8400000000000001E-2</v>
-      </c>
-      <c r="G5" s="13">
-        <f>1.2*CIF1sf!G5</f>
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="H5" s="13">
-        <f>1.2*CIF1sf!H5</f>
-        <v>4.6199999999999998E-2</v>
-      </c>
-      <c r="I5" s="15">
-        <f>1.2*CIF1sf!I5</f>
-        <v>1.44E-2</v>
-      </c>
-      <c r="J5" s="13">
-        <f>1.2*CIF1sf!J5</f>
-        <v>0.11399999999999999</v>
-      </c>
-      <c r="K5" s="13">
-        <f>1.2*CIF1sf!K5</f>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>25</v>
-      </c>
-      <c r="B6" s="13">
-        <f>1.2*CIF1sf!B6</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C6" s="13">
-        <f>1.2*CIF1sf!C6</f>
-        <v>9.8400000000000001E-2</v>
-      </c>
-      <c r="D6" s="13">
-        <f>1.2*CIF1sf!D6</f>
-        <v>4.4399999999999995E-2</v>
-      </c>
-      <c r="E6" s="13">
-        <f>1.2*CIF1sf!E6</f>
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="F6" s="13">
-        <f>1.2*CIF1sf!F6</f>
-        <v>0.13439999999999999</v>
-      </c>
-      <c r="G6" s="13">
-        <f>1.2*CIF1sf!G6</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H6" s="13">
-        <f>1.2*CIF1sf!H6</f>
-        <v>6.3E-2</v>
-      </c>
-      <c r="I6" s="13">
-        <f>1.2*CIF1sf!I6</f>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="J6" s="15">
-        <f>1.2*CIF1sf!J6</f>
-        <v>2.52E-2</v>
-      </c>
-      <c r="K6" s="13">
-        <f>1.2*CIF1sf!K6</f>
-        <v>0.15</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2301,44 +2100,44 @@
         <v>21</v>
       </c>
       <c r="B2" s="15">
-        <f>0.8*CIF1sf!B2</f>
-        <v>1.2E-2</v>
+        <f>1.2*CIF1sf!B2</f>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C2" s="13">
-        <f>0.8*CIF1sf!C2</f>
-        <v>3.1200000000000002E-2</v>
+        <f>1.2*CIF1sf!C2</f>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="D2" s="13">
-        <f>0.8*CIF1sf!D2</f>
-        <v>3.1200000000000002E-2</v>
+        <f>1.2*CIF1sf!D2</f>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="E2" s="13">
-        <f>0.8*CIF1sf!E2</f>
-        <v>3.2800000000000003E-2</v>
+        <f>1.2*CIF1sf!E2</f>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="F2" s="13">
-        <f>0.8*CIF1sf!F2</f>
-        <v>4.3199999999999995E-2</v>
+        <f>1.2*CIF1sf!F2</f>
+        <v>6.4799999999999983E-2</v>
       </c>
       <c r="G2" s="13">
-        <f>0.8*CIF1sf!G2</f>
-        <v>9.2000000000000012E-2</v>
+        <f>1.2*CIF1sf!G2</f>
+        <v>0.13800000000000001</v>
       </c>
       <c r="H2" s="13">
-        <f>0.8*CIF1sf!H2</f>
-        <v>2.0160000000000001E-2</v>
+        <f>1.2*CIF1sf!H2</f>
+        <v>3.024E-2</v>
       </c>
       <c r="I2" s="13">
-        <f>0.8*CIF1sf!I2</f>
-        <v>3.5999999999999997E-2</v>
+        <f>1.2*CIF1sf!I2</f>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J2" s="13">
-        <f>0.8*CIF1sf!J2</f>
-        <v>3.8400000000000004E-2</v>
+        <f>1.2*CIF1sf!J2</f>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="K2" s="13">
-        <f>0.8*CIF1sf!K2</f>
-        <v>5.4400000000000004E-2</v>
+        <f>1.2*CIF1sf!K2</f>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -2350,44 +2149,44 @@
         <v>22</v>
       </c>
       <c r="B3" s="13">
-        <f>0.8*CIF1sf!B3</f>
-        <v>2.5600000000000001E-2</v>
+        <f>1.2*CIF1sf!B3</f>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="C3" s="13">
-        <f>0.8*CIF1sf!C3</f>
-        <v>3.5999999999999997E-2</v>
+        <f>1.2*CIF1sf!C3</f>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D3" s="13">
-        <f>0.8*CIF1sf!D3</f>
-        <v>4.4000000000000004E-2</v>
+        <f>1.2*CIF1sf!D3</f>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E3" s="15">
-        <f>0.8*CIF1sf!E3</f>
-        <v>1.04E-2</v>
+        <f>1.2*CIF1sf!E3</f>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="F3" s="13">
-        <f>0.8*CIF1sf!F3</f>
-        <v>4.8800000000000003E-2</v>
+        <f>1.2*CIF1sf!F3</f>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="G3" s="13">
-        <f>0.8*CIF1sf!G3</f>
-        <v>6.8000000000000005E-2</v>
+        <f>1.2*CIF1sf!G3</f>
+        <v>0.10200000000000001</v>
       </c>
       <c r="H3" s="13">
-        <f>0.8*CIF1sf!H3</f>
-        <v>2.2960000000000001E-2</v>
+        <f>1.2*CIF1sf!H3</f>
+        <v>3.4439999999999998E-2</v>
       </c>
       <c r="I3" s="13">
-        <f>0.8*CIF1sf!I3</f>
-        <v>6.8000000000000005E-2</v>
+        <f>1.2*CIF1sf!I3</f>
+        <v>0.10200000000000001</v>
       </c>
       <c r="J3" s="13">
-        <f>0.8*CIF1sf!J3</f>
-        <v>2.8799999999999999E-2</v>
+        <f>1.2*CIF1sf!J3</f>
+        <v>4.3199999999999995E-2</v>
       </c>
       <c r="K3" s="13">
-        <f>0.8*CIF1sf!K3</f>
-        <v>4.3200000000000002E-2</v>
+        <f>1.2*CIF1sf!K3</f>
+        <v>6.4799999999999996E-2</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -2399,44 +2198,44 @@
         <v>23</v>
       </c>
       <c r="B4" s="13">
-        <f>0.8*CIF1sf!B4</f>
-        <v>5.2000000000000005E-2</v>
+        <f>1.2*CIF1sf!B4</f>
+        <v>7.8E-2</v>
       </c>
       <c r="C4" s="13">
-        <f>0.8*CIF1sf!C4</f>
-        <v>7.1999999999999995E-2</v>
+        <f>1.2*CIF1sf!C4</f>
+        <v>0.108</v>
       </c>
       <c r="D4" s="13">
-        <f>0.8*CIF1sf!D4</f>
-        <v>3.2800000000000003E-2</v>
+        <f>1.2*CIF1sf!D4</f>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="E4" s="13">
-        <f>0.8*CIF1sf!E4</f>
-        <v>4.1599999999999998E-2</v>
+        <f>1.2*CIF1sf!E4</f>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="F4" s="13">
-        <f>0.8*CIF1sf!F4</f>
-        <v>9.8400000000000001E-2</v>
+        <f>1.2*CIF1sf!F4</f>
+        <v>0.14759999999999998</v>
       </c>
       <c r="G4" s="15">
-        <f>0.8*CIF1sf!G4</f>
-        <v>1.52E-2</v>
+        <f>1.2*CIF1sf!G4</f>
+        <v>2.2799999999999997E-2</v>
       </c>
       <c r="H4" s="13">
-        <f>0.8*CIF1sf!H4</f>
-        <v>4.5920000000000002E-2</v>
+        <f>1.2*CIF1sf!H4</f>
+        <v>6.8879999999999997E-2</v>
       </c>
       <c r="I4" s="13">
-        <f>0.8*CIF1sf!I4</f>
-        <v>4.9600000000000005E-2</v>
+        <f>1.2*CIF1sf!I4</f>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="J4" s="13">
-        <f>0.8*CIF1sf!J4</f>
-        <v>4.6400000000000004E-2</v>
+        <f>1.2*CIF1sf!J4</f>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="K4" s="13">
-        <f>0.8*CIF1sf!K4</f>
-        <v>6.2400000000000004E-2</v>
+        <f>1.2*CIF1sf!K4</f>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -2448,44 +2247,44 @@
         <v>24</v>
       </c>
       <c r="B5" s="13">
-        <f>0.8*CIF1sf!B5</f>
-        <v>3.5200000000000002E-2</v>
+        <f>1.2*CIF1sf!B5</f>
+        <v>5.2799999999999993E-2</v>
       </c>
       <c r="C5" s="13">
-        <f>0.8*CIF1sf!C5</f>
-        <v>4.8000000000000001E-2</v>
+        <f>1.2*CIF1sf!C5</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D5" s="13">
-        <f>0.8*CIF1sf!D5</f>
-        <v>2.9600000000000001E-2</v>
+        <f>1.2*CIF1sf!D5</f>
+        <v>4.4399999999999995E-2</v>
       </c>
       <c r="E5" s="13">
-        <f>0.8*CIF1sf!E5</f>
-        <v>5.1200000000000002E-2</v>
+        <f>1.2*CIF1sf!E5</f>
+        <v>7.6799999999999993E-2</v>
       </c>
       <c r="F5" s="13">
-        <f>0.8*CIF1sf!F5</f>
-        <v>6.5600000000000006E-2</v>
+        <f>1.2*CIF1sf!F5</f>
+        <v>9.8400000000000001E-2</v>
       </c>
       <c r="G5" s="13">
-        <f>0.8*CIF1sf!G5</f>
-        <v>6.2400000000000004E-2</v>
+        <f>1.2*CIF1sf!G5</f>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="H5" s="13">
-        <f>0.8*CIF1sf!H5</f>
-        <v>3.0800000000000001E-2</v>
+        <f>1.2*CIF1sf!H5</f>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="I5" s="15">
-        <f>0.8*CIF1sf!I5</f>
-        <v>9.6000000000000009E-3</v>
+        <f>1.2*CIF1sf!I5</f>
+        <v>1.44E-2</v>
       </c>
       <c r="J5" s="13">
-        <f>0.8*CIF1sf!J5</f>
-        <v>7.6000000000000012E-2</v>
+        <f>1.2*CIF1sf!J5</f>
+        <v>0.11399999999999999</v>
       </c>
       <c r="K5" s="13">
-        <f>0.8*CIF1sf!K5</f>
-        <v>2.4800000000000003E-2</v>
+        <f>1.2*CIF1sf!K5</f>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -2497,44 +2296,44 @@
         <v>25</v>
       </c>
       <c r="B6" s="13">
-        <f>0.8*CIF1sf!B6</f>
-        <v>4.8000000000000001E-2</v>
+        <f>1.2*CIF1sf!B6</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C6" s="13">
-        <f>0.8*CIF1sf!C6</f>
-        <v>6.5600000000000006E-2</v>
+        <f>1.2*CIF1sf!C6</f>
+        <v>9.8400000000000001E-2</v>
       </c>
       <c r="D6" s="13">
-        <f>0.8*CIF1sf!D6</f>
-        <v>2.9600000000000001E-2</v>
+        <f>1.2*CIF1sf!D6</f>
+        <v>4.4399999999999995E-2</v>
       </c>
       <c r="E6" s="13">
-        <f>0.8*CIF1sf!E6</f>
-        <v>6.2400000000000004E-2</v>
+        <f>1.2*CIF1sf!E6</f>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="F6" s="13">
-        <f>0.8*CIF1sf!F6</f>
-        <v>8.9600000000000013E-2</v>
+        <f>1.2*CIF1sf!F6</f>
+        <v>0.13439999999999999</v>
       </c>
       <c r="G6" s="13">
-        <f>0.8*CIF1sf!G6</f>
-        <v>4.4000000000000004E-2</v>
+        <f>1.2*CIF1sf!G6</f>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H6" s="13">
-        <f>0.8*CIF1sf!H6</f>
-        <v>4.2000000000000003E-2</v>
+        <f>1.2*CIF1sf!H6</f>
+        <v>6.3E-2</v>
       </c>
       <c r="I6" s="13">
-        <f>0.8*CIF1sf!I6</f>
-        <v>3.5999999999999997E-2</v>
+        <f>1.2*CIF1sf!I6</f>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J6" s="15">
-        <f>0.8*CIF1sf!J6</f>
-        <v>1.6800000000000002E-2</v>
+        <f>1.2*CIF1sf!J6</f>
+        <v>2.52E-2</v>
       </c>
       <c r="K6" s="13">
-        <f>0.8*CIF1sf!K6</f>
-        <v>0.1</v>
+        <f>1.2*CIF1sf!K6</f>
+        <v>0.15</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2664,44 +2463,44 @@
         <v>21</v>
       </c>
       <c r="B2" s="15">
-        <f>1.5*CIF1sf!B2</f>
-        <v>2.2499999999999999E-2</v>
+        <f>0.8*CIF1sf!B2</f>
+        <v>1.2E-2</v>
       </c>
       <c r="C2" s="13">
-        <f>1.5*CIF1sf!C2</f>
-        <v>5.8499999999999996E-2</v>
+        <f>0.8*CIF1sf!C2</f>
+        <v>3.1200000000000002E-2</v>
       </c>
       <c r="D2" s="13">
-        <f>1.5*CIF1sf!D2</f>
-        <v>5.8499999999999996E-2</v>
+        <f>0.8*CIF1sf!D2</f>
+        <v>3.1200000000000002E-2</v>
       </c>
       <c r="E2" s="13">
-        <f>1.5*CIF1sf!E2</f>
-        <v>6.1499999999999999E-2</v>
+        <f>0.8*CIF1sf!E2</f>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="F2" s="13">
-        <f>1.5*CIF1sf!F2</f>
-        <v>8.0999999999999989E-2</v>
+        <f>0.8*CIF1sf!F2</f>
+        <v>4.3199999999999995E-2</v>
       </c>
       <c r="G2" s="13">
-        <f>1.5*CIF1sf!G2</f>
-        <v>0.17250000000000001</v>
+        <f>0.8*CIF1sf!G2</f>
+        <v>9.2000000000000012E-2</v>
       </c>
       <c r="H2" s="13">
-        <f>1.5*CIF1sf!H2</f>
-        <v>3.78E-2</v>
+        <f>0.8*CIF1sf!H2</f>
+        <v>2.0160000000000001E-2</v>
       </c>
       <c r="I2" s="13">
-        <f>1.5*CIF1sf!I2</f>
-        <v>6.7500000000000004E-2</v>
+        <f>0.8*CIF1sf!I2</f>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J2" s="13">
-        <f>1.5*CIF1sf!J2</f>
-        <v>7.2000000000000008E-2</v>
+        <f>0.8*CIF1sf!J2</f>
+        <v>3.8400000000000004E-2</v>
       </c>
       <c r="K2" s="13">
-        <f>1.5*CIF1sf!K2</f>
-        <v>0.10200000000000001</v>
+        <f>0.8*CIF1sf!K2</f>
+        <v>5.4400000000000004E-2</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -2713,44 +2512,44 @@
         <v>22</v>
       </c>
       <c r="B3" s="13">
-        <f>1.5*CIF1sf!B3</f>
-        <v>4.8000000000000001E-2</v>
+        <f>0.8*CIF1sf!B3</f>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="C3" s="13">
-        <f>1.5*CIF1sf!C3</f>
-        <v>6.7500000000000004E-2</v>
+        <f>0.8*CIF1sf!C3</f>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D3" s="13">
-        <f>1.5*CIF1sf!D3</f>
-        <v>8.2500000000000004E-2</v>
+        <f>0.8*CIF1sf!D3</f>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="E3" s="15">
-        <f>1.5*CIF1sf!E3</f>
-        <v>1.95E-2</v>
+        <f>0.8*CIF1sf!E3</f>
+        <v>1.04E-2</v>
       </c>
       <c r="F3" s="13">
-        <f>1.5*CIF1sf!F3</f>
-        <v>9.1499999999999998E-2</v>
+        <f>0.8*CIF1sf!F3</f>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="G3" s="13">
-        <f>1.5*CIF1sf!G3</f>
-        <v>0.1275</v>
+        <f>0.8*CIF1sf!G3</f>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H3" s="13">
-        <f>1.5*CIF1sf!H3</f>
-        <v>4.3049999999999998E-2</v>
+        <f>0.8*CIF1sf!H3</f>
+        <v>2.2960000000000001E-2</v>
       </c>
       <c r="I3" s="13">
-        <f>1.5*CIF1sf!I3</f>
-        <v>0.1275</v>
+        <f>0.8*CIF1sf!I3</f>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="J3" s="13">
-        <f>1.5*CIF1sf!J3</f>
-        <v>5.3999999999999992E-2</v>
+        <f>0.8*CIF1sf!J3</f>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="K3" s="13">
-        <f>1.5*CIF1sf!K3</f>
-        <v>8.1000000000000003E-2</v>
+        <f>0.8*CIF1sf!K3</f>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -2762,44 +2561,44 @@
         <v>23</v>
       </c>
       <c r="B4" s="13">
-        <f>1.5*CIF1sf!B4</f>
-        <v>9.7500000000000003E-2</v>
+        <f>0.8*CIF1sf!B4</f>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="C4" s="13">
-        <f>1.5*CIF1sf!C4</f>
-        <v>0.13500000000000001</v>
+        <f>0.8*CIF1sf!C4</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D4" s="13">
-        <f>1.5*CIF1sf!D4</f>
-        <v>6.1499999999999999E-2</v>
+        <f>0.8*CIF1sf!D4</f>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="E4" s="13">
-        <f>1.5*CIF1sf!E4</f>
-        <v>7.8E-2</v>
+        <f>0.8*CIF1sf!E4</f>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="F4" s="13">
-        <f>1.5*CIF1sf!F4</f>
-        <v>0.1845</v>
+        <f>0.8*CIF1sf!F4</f>
+        <v>9.8400000000000001E-2</v>
       </c>
       <c r="G4" s="15">
-        <f>1.5*CIF1sf!G4</f>
-        <v>2.8499999999999998E-2</v>
+        <f>0.8*CIF1sf!G4</f>
+        <v>1.52E-2</v>
       </c>
       <c r="H4" s="13">
-        <f>1.5*CIF1sf!H4</f>
-        <v>8.6099999999999996E-2</v>
+        <f>0.8*CIF1sf!H4</f>
+        <v>4.5920000000000002E-2</v>
       </c>
       <c r="I4" s="13">
-        <f>1.5*CIF1sf!I4</f>
-        <v>9.2999999999999999E-2</v>
+        <f>0.8*CIF1sf!I4</f>
+        <v>4.9600000000000005E-2</v>
       </c>
       <c r="J4" s="13">
-        <f>1.5*CIF1sf!J4</f>
-        <v>8.7000000000000008E-2</v>
+        <f>0.8*CIF1sf!J4</f>
+        <v>4.6400000000000004E-2</v>
       </c>
       <c r="K4" s="13">
-        <f>1.5*CIF1sf!K4</f>
-        <v>0.11699999999999999</v>
+        <f>0.8*CIF1sf!K4</f>
+        <v>6.2400000000000004E-2</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -2811,44 +2610,44 @@
         <v>24</v>
       </c>
       <c r="B5" s="13">
-        <f>1.5*CIF1sf!B5</f>
-        <v>6.6000000000000003E-2</v>
+        <f>0.8*CIF1sf!B5</f>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="C5" s="13">
-        <f>1.5*CIF1sf!C5</f>
-        <v>0.09</v>
+        <f>0.8*CIF1sf!C5</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D5" s="13">
-        <f>1.5*CIF1sf!D5</f>
-        <v>5.5499999999999994E-2</v>
+        <f>0.8*CIF1sf!D5</f>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="E5" s="13">
-        <f>1.5*CIF1sf!E5</f>
-        <v>9.6000000000000002E-2</v>
+        <f>0.8*CIF1sf!E5</f>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="F5" s="13">
-        <f>1.5*CIF1sf!F5</f>
-        <v>0.123</v>
+        <f>0.8*CIF1sf!F5</f>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="G5" s="13">
-        <f>1.5*CIF1sf!G5</f>
-        <v>0.11699999999999999</v>
+        <f>0.8*CIF1sf!G5</f>
+        <v>6.2400000000000004E-2</v>
       </c>
       <c r="H5" s="13">
-        <f>1.5*CIF1sf!H5</f>
-        <v>5.7749999999999996E-2</v>
+        <f>0.8*CIF1sf!H5</f>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="I5" s="15">
-        <f>1.5*CIF1sf!I5</f>
-        <v>1.8000000000000002E-2</v>
+        <f>0.8*CIF1sf!I5</f>
+        <v>9.6000000000000009E-3</v>
       </c>
       <c r="J5" s="13">
-        <f>1.5*CIF1sf!J5</f>
-        <v>0.14250000000000002</v>
+        <f>0.8*CIF1sf!J5</f>
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="K5" s="13">
-        <f>1.5*CIF1sf!K5</f>
-        <v>4.65E-2</v>
+        <f>0.8*CIF1sf!K5</f>
+        <v>2.4800000000000003E-2</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -2860,44 +2659,44 @@
         <v>25</v>
       </c>
       <c r="B6" s="13">
-        <f>1.5*CIF1sf!B6</f>
-        <v>0.09</v>
+        <f>0.8*CIF1sf!B6</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C6" s="13">
-        <f>1.5*CIF1sf!C6</f>
-        <v>0.123</v>
+        <f>0.8*CIF1sf!C6</f>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D6" s="13">
-        <f>1.5*CIF1sf!D6</f>
-        <v>5.5499999999999994E-2</v>
+        <f>0.8*CIF1sf!D6</f>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="E6" s="13">
-        <f>1.5*CIF1sf!E6</f>
-        <v>0.11699999999999999</v>
+        <f>0.8*CIF1sf!E6</f>
+        <v>6.2400000000000004E-2</v>
       </c>
       <c r="F6" s="13">
-        <f>1.5*CIF1sf!F6</f>
-        <v>0.16800000000000001</v>
+        <f>0.8*CIF1sf!F6</f>
+        <v>8.9600000000000013E-2</v>
       </c>
       <c r="G6" s="13">
-        <f>1.5*CIF1sf!G6</f>
-        <v>8.2500000000000004E-2</v>
+        <f>0.8*CIF1sf!G6</f>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="H6" s="13">
-        <f>1.5*CIF1sf!H6</f>
-        <v>7.8750000000000001E-2</v>
+        <f>0.8*CIF1sf!H6</f>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="I6" s="13">
-        <f>1.5*CIF1sf!I6</f>
-        <v>6.7500000000000004E-2</v>
+        <f>0.8*CIF1sf!I6</f>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J6" s="15">
-        <f>1.5*CIF1sf!J6</f>
-        <v>3.15E-2</v>
+        <f>0.8*CIF1sf!J6</f>
+        <v>1.6800000000000002E-2</v>
       </c>
       <c r="K6" s="13">
-        <f>1.5*CIF1sf!K6</f>
-        <v>0.1875</v>
+        <f>0.8*CIF1sf!K6</f>
+        <v>0.1</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2971,6 +2770,369 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="11" width="8.77734375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>21</v>
+      </c>
+      <c r="B2" s="15">
+        <f>1.5*CIF1sf!B2</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C2" s="13">
+        <f>1.5*CIF1sf!C2</f>
+        <v>5.8499999999999996E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <f>1.5*CIF1sf!D2</f>
+        <v>5.8499999999999996E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <f>1.5*CIF1sf!E2</f>
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <f>1.5*CIF1sf!F2</f>
+        <v>8.0999999999999989E-2</v>
+      </c>
+      <c r="G2" s="13">
+        <f>1.5*CIF1sf!G2</f>
+        <v>0.17250000000000001</v>
+      </c>
+      <c r="H2" s="13">
+        <f>1.5*CIF1sf!H2</f>
+        <v>3.78E-2</v>
+      </c>
+      <c r="I2" s="13">
+        <f>1.5*CIF1sf!I2</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="J2" s="13">
+        <f>1.5*CIF1sf!J2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="K2" s="13">
+        <f>1.5*CIF1sf!K2</f>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13">
+        <f>1.5*CIF1sf!B3</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C3" s="13">
+        <f>1.5*CIF1sf!C3</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <f>1.5*CIF1sf!D3</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <f>1.5*CIF1sf!E3</f>
+        <v>1.95E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <f>1.5*CIF1sf!F3</f>
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <f>1.5*CIF1sf!G3</f>
+        <v>0.1275</v>
+      </c>
+      <c r="H3" s="13">
+        <f>1.5*CIF1sf!H3</f>
+        <v>4.3049999999999998E-2</v>
+      </c>
+      <c r="I3" s="13">
+        <f>1.5*CIF1sf!I3</f>
+        <v>0.1275</v>
+      </c>
+      <c r="J3" s="13">
+        <f>1.5*CIF1sf!J3</f>
+        <v>5.3999999999999992E-2</v>
+      </c>
+      <c r="K3" s="13">
+        <f>1.5*CIF1sf!K3</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13">
+        <f>1.5*CIF1sf!B4</f>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <f>1.5*CIF1sf!C4</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D4" s="13">
+        <f>1.5*CIF1sf!D4</f>
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <f>1.5*CIF1sf!E4</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <f>1.5*CIF1sf!F4</f>
+        <v>0.1845</v>
+      </c>
+      <c r="G4" s="15">
+        <f>1.5*CIF1sf!G4</f>
+        <v>2.8499999999999998E-2</v>
+      </c>
+      <c r="H4" s="13">
+        <f>1.5*CIF1sf!H4</f>
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <f>1.5*CIF1sf!I4</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <f>1.5*CIF1sf!J4</f>
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="K4" s="13">
+        <f>1.5*CIF1sf!K4</f>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>24</v>
+      </c>
+      <c r="B5" s="13">
+        <f>1.5*CIF1sf!B5</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C5" s="13">
+        <f>1.5*CIF1sf!C5</f>
+        <v>0.09</v>
+      </c>
+      <c r="D5" s="13">
+        <f>1.5*CIF1sf!D5</f>
+        <v>5.5499999999999994E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <f>1.5*CIF1sf!E5</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <f>1.5*CIF1sf!F5</f>
+        <v>0.123</v>
+      </c>
+      <c r="G5" s="13">
+        <f>1.5*CIF1sf!G5</f>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="H5" s="13">
+        <f>1.5*CIF1sf!H5</f>
+        <v>5.7749999999999996E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <f>1.5*CIF1sf!I5</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="J5" s="13">
+        <f>1.5*CIF1sf!J5</f>
+        <v>0.14250000000000002</v>
+      </c>
+      <c r="K5" s="13">
+        <f>1.5*CIF1sf!K5</f>
+        <v>4.65E-2</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13">
+        <f>1.5*CIF1sf!B6</f>
+        <v>0.09</v>
+      </c>
+      <c r="C6" s="13">
+        <f>1.5*CIF1sf!C6</f>
+        <v>0.123</v>
+      </c>
+      <c r="D6" s="13">
+        <f>1.5*CIF1sf!D6</f>
+        <v>5.5499999999999994E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f>1.5*CIF1sf!E6</f>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <f>1.5*CIF1sf!F6</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G6" s="13">
+        <f>1.5*CIF1sf!G6</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <f>1.5*CIF1sf!H6</f>
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <f>1.5*CIF1sf!I6</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="J6" s="15">
+        <f>1.5*CIF1sf!J6</f>
+        <v>3.15E-2</v>
+      </c>
+      <c r="K6" s="13">
+        <f>1.5*CIF1sf!K6</f>
+        <v>0.1875</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
@@ -3378,7 +3540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
@@ -3741,7 +3903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
@@ -4104,15 +4266,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5175,7 +5337,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6362,7 +6524,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8624,7 +8786,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9679,7 +9841,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Capacity_Planning/lib/CaseData.xlsx
+++ b/Capacity_Planning/lib/CaseData.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Production days per year</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>EF</t>
-  </si>
-  <si>
-    <t>S_start</t>
-  </si>
-  <si>
-    <t>C_final</t>
   </si>
   <si>
     <t>f/n</t>
@@ -185,19 +179,10 @@
     <t>set up cost Ks</t>
   </si>
   <si>
-    <t>weeks</t>
-  </si>
-  <si>
     <t>per week</t>
   </si>
   <si>
-    <t>(5 years with 50 weeks per year)</t>
-  </si>
-  <si>
     <t>(or 0,95 per year)</t>
-  </si>
-  <si>
-    <t>$/week</t>
   </si>
   <si>
     <t>This is slightly less than the time it will take for a new drug to go through the three stages of clinical trials and roughly the time it will take to build and qualify new capacity.</t>
@@ -230,9 +215,6 @@
     <t>capacity demand</t>
   </si>
   <si>
-    <t>tons/day</t>
-  </si>
-  <si>
     <t>total cost p</t>
   </si>
   <si>
@@ -246,6 +228,24 @@
   </si>
   <si>
     <t>number of nations n</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>(5 years with 12 months per year)</t>
+  </si>
+  <si>
+    <t>$/month</t>
+  </si>
+  <si>
+    <t>tons/month</t>
   </si>
 </sst>
 </file>
@@ -849,7 +849,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,88 +861,88 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1">
-        <v>250</v>
+        <f>5*12</f>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="B2" s="17">
         <v>0.999</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
+      <c r="C2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <f>3*4</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="19">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H5" s="20">
         <f>B5*B3+B7</f>
-        <v>260000000</v>
+        <v>250000000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="19">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H6" s="20">
         <f>B6*B4+B8</f>
@@ -951,50 +951,50 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="19">
         <v>10000000</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="19">
         <v>5000000</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9" s="19">
-        <v>20000000</v>
+        <v>80000000</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <f>200+B10</f>
@@ -1003,13 +1003,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B13">
-        <v>250</v>
+        <f>250*30</f>
+        <v>7500</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1053,16 +1054,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1450,16 +1451,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1618,7 +1619,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="14">
         <v>21</v>
@@ -1784,7 +1785,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -2111,7 +2112,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13">
         <v>1</v>
@@ -2423,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13">
         <v>1</v>
@@ -2785,7 +2786,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13">
         <v>1</v>
@@ -3147,7 +3148,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13">
         <v>1</v>
@@ -3511,7 +3512,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13">
         <v>11</v>
@@ -3919,7 +3920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13">
         <v>1</v>
@@ -4281,7 +4282,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>8</v>
@@ -4289,7 +4290,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -4297,7 +4298,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -4327,7 +4328,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13">
         <v>1</v>
@@ -4691,7 +4692,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="14">
         <v>1</v>
@@ -5739,43 +5740,43 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.5546875" style="1"/>
+    <col min="1" max="3" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -5785,42 +5786,59 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -5829,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -5837,7 +5855,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -5846,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -5854,7 +5872,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -5863,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -5871,7 +5889,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -5880,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -5888,7 +5906,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -5897,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -5905,7 +5923,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -5914,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -5922,7 +5940,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -5934,12 +5952,12 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -5951,12 +5969,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -5968,12 +5986,12 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -5985,12 +6003,12 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -6002,12 +6020,12 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -6019,12 +6037,12 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -6036,12 +6054,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -6053,12 +6071,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -6070,12 +6088,12 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -6087,18 +6105,18 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -6109,13 +6127,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -6126,13 +6144,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -6143,13 +6161,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -6160,7 +6178,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -6169,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -6177,7 +6195,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -6186,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -6194,7 +6212,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -6203,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -6211,7 +6229,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -6220,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -6228,7 +6246,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -6237,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -6245,7 +6263,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -6257,12 +6275,12 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -6274,12 +6292,12 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -6291,75 +6309,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>30</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>31</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6391,7 +6341,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -7578,7 +7528,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -8634,7 +8584,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -9690,43 +9640,43 @@
         <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="18">
         <v>300000000</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="18">
         <v>50000000</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -9868,7 +9818,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>

--- a/Capacity_Planning/lib/CaseData.xlsx
+++ b/Capacity_Planning/lib/CaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="DataTiming" sheetId="29" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="TRn" sheetId="16" r:id="rId8"/>
     <sheet name="MassBalance" sheetId="19" r:id="rId9"/>
     <sheet name="DataF" sheetId="1" r:id="rId10"/>
-    <sheet name="Dict (i=8)" sheetId="5" r:id="rId11"/>
+    <sheet name="Dict" sheetId="5" r:id="rId11"/>
     <sheet name="Sis" sheetId="27" r:id="rId12"/>
     <sheet name="Pif" sheetId="6" r:id="rId13"/>
     <sheet name="CIF1sf" sheetId="8" r:id="rId14"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Production days per year</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Project life Lf</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>days/year</t>
   </si>
   <si>
@@ -94,48 +91,13 @@
     <t>s/f</t>
   </si>
   <si>
-    <t>Budget for primary expansion (t=1)</t>
-  </si>
-  <si>
-    <r>
-      <t>Budget fo seconcary expansion (t=1+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>∆t*)</t>
-    </r>
-  </si>
-  <si>
     <t>$</t>
-  </si>
-  <si>
-    <t>max cap. Quf [tons/day]</t>
-  </si>
-  <si>
-    <t>min expansion qLf [tons/day]</t>
-  </si>
-  <si>
-    <t>min production XLf [tons/day]</t>
   </si>
   <si>
     <t>MCf [$/ton]</t>
   </si>
   <si>
-    <t>D Monopoly [tons/day]</t>
-  </si>
-  <si>
-    <t>D Regular Market [tons/day]</t>
-  </si>
-  <si>
     <t>Percentage of D</t>
-  </si>
-  <si>
-    <t>i/s [tons/day]</t>
   </si>
   <si>
     <t>f/i [$/ton]</t>
@@ -179,9 +141,6 @@
     <t>set up cost Ks</t>
   </si>
   <si>
-    <t>per week</t>
-  </si>
-  <si>
     <t>(or 0,95 per year)</t>
   </si>
   <si>
@@ -210,9 +169,6 @@
   </si>
   <si>
     <t>gamma c</t>
-  </si>
-  <si>
-    <t>capacity demand</t>
   </si>
   <si>
     <t>total cost p</t>
@@ -247,6 +203,36 @@
   <si>
     <t>tons/month</t>
   </si>
+  <si>
+    <t>max cap. Quf [tons/month]</t>
+  </si>
+  <si>
+    <t>D Monopoly [tons/month]</t>
+  </si>
+  <si>
+    <t>D Regular Market [tons/month]</t>
+  </si>
+  <si>
+    <t>i/s [tons/month]</t>
+  </si>
+  <si>
+    <t>per month</t>
+  </si>
+  <si>
+    <t>Budget for primary &amp; secondary expansion (t=1)</t>
+  </si>
+  <si>
+    <t>initial capacity Q0</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>min expansion qLf [tons/month]</t>
+  </si>
+  <si>
+    <t>min production XLf [tons/month]</t>
+  </si>
 </sst>
 </file>
 
@@ -255,8 +241,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -362,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,7 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +377,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -503,73 +491,6 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
             <a:t>OM(g)=IM(f)</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rechteck 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4968240" y="327660"/>
-          <a:ext cx="2346960" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Budget constraint aufteilen</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> für primary und secondary</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
@@ -846,10 +767,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,160 +782,150 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <f>5*12</f>
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="17">
-        <v>0.999</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="22">
+        <f>0.95^(1/12)</f>
+        <v>0.99573468122243936</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="19">
-        <v>4000000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f>B5*B3+B7</f>
         <v>250000000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="19">
+        <v>25</v>
+      </c>
+      <c r="B6" s="18">
         <v>2000000</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="20">
+        <v>35</v>
+      </c>
+      <c r="H6" s="19">
         <f>B6*B4+B8</f>
         <v>11000000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="19">
+        <v>26</v>
+      </c>
+      <c r="B7" s="18">
         <v>10000000</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="19">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18">
         <v>5000000</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="19">
+        <v>30</v>
+      </c>
+      <c r="B9" s="18">
         <v>80000000</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <f>200+B10</f>
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
-        <f>250*30</f>
-        <v>7500</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1026,15 +937,15 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="4"/>
-    <col min="2" max="2" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.5546875" style="2"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="2" bestFit="1" customWidth="1"/>
@@ -1054,16 +965,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1071,16 +982,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>250</v>
+        <v>7500</v>
       </c>
       <c r="C2" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D2" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="E2" s="2">
-        <v>1120</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1088,16 +999,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>300</v>
+        <v>9000</v>
       </c>
       <c r="C3" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D3" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="2">
-        <v>1120</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1105,16 +1016,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>280</v>
+        <v>8400</v>
       </c>
       <c r="C4" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D4" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="E4" s="2">
-        <v>1120</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1122,16 +1033,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>320</v>
+        <v>9600</v>
       </c>
       <c r="C5" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D5" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="E5" s="2">
-        <v>1120</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1139,16 +1050,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>250</v>
+        <v>7500</v>
       </c>
       <c r="C6" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D6" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="E6" s="2">
-        <v>1120</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1156,16 +1067,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>250</v>
+        <v>7500</v>
       </c>
       <c r="C7" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D7" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="E7" s="2">
-        <v>1120</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,16 +1084,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>300</v>
+        <v>9000</v>
       </c>
       <c r="C8" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D8" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="E8" s="2">
-        <v>1120</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1190,16 +1101,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>270</v>
+        <v>8100</v>
       </c>
       <c r="C9" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D9" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="E9" s="2">
-        <v>1120</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1207,16 +1118,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>350</v>
+        <v>10500</v>
       </c>
       <c r="C10" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D10" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="E10" s="2">
-        <v>1120</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1224,16 +1135,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>300</v>
+        <v>9000</v>
       </c>
       <c r="C11" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D11" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="E11" s="2">
-        <v>1120</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1241,16 +1152,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>80</v>
+        <v>2400</v>
       </c>
       <c r="C12" s="2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D12" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E12" s="2">
-        <v>930</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1258,16 +1169,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>90</v>
+        <v>2700</v>
       </c>
       <c r="C13" s="2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D13" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E13" s="2">
-        <v>930</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1275,16 +1186,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>70</v>
+        <v>2100</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D14" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E14" s="2">
-        <v>930</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1292,16 +1203,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>90</v>
+        <v>2700</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D15" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E15" s="2">
-        <v>930</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1309,16 +1220,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D16" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E16" s="2">
-        <v>930</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1326,16 +1237,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D17" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E17" s="2">
-        <v>930</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1343,16 +1254,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D18" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E18" s="2">
-        <v>930</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,16 +1271,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>70</v>
+        <v>2100</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D19" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E19" s="2">
-        <v>930</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1377,16 +1288,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>80</v>
+        <v>2400</v>
       </c>
       <c r="C20" s="2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D20" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E20" s="2">
-        <v>930</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1394,16 +1305,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="C21" s="2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D21" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E21" s="2">
-        <v>930</v>
+        <v>27900</v>
       </c>
     </row>
   </sheetData>
@@ -1419,15 +1330,15 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="10"/>
     <col min="2" max="2" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.5546875" style="10"/>
   </cols>
@@ -1438,11 +1349,11 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6">
-        <v>250</v>
-      </c>
-      <c r="D1" s="6">
+        <v>7500</v>
+      </c>
+      <c r="D1" s="20">
         <f>SUM(D3:D9)</f>
-        <v>118.75</v>
+        <v>3562.5</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -1451,16 +1362,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1472,11 +1383,11 @@
       </c>
       <c r="C3" s="10">
         <f>B3*$C$1</f>
-        <v>62.5</v>
-      </c>
-      <c r="D3" s="11">
+        <v>1875</v>
+      </c>
+      <c r="D3" s="21">
         <f>C3*E3</f>
-        <v>43.75</v>
+        <v>1312.5</v>
       </c>
       <c r="E3" s="10">
         <v>0.7</v>
@@ -1491,11 +1402,11 @@
       </c>
       <c r="C4" s="10">
         <f t="shared" ref="C4:C9" si="0">B4*$C$1</f>
-        <v>50</v>
-      </c>
-      <c r="D4" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="21">
         <f t="shared" ref="D4:D9" si="1">C4*E4</f>
-        <v>15</v>
+        <v>450</v>
       </c>
       <c r="E4" s="10">
         <v>0.3</v>
@@ -1510,11 +1421,11 @@
       </c>
       <c r="C5" s="10">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="D5" s="11">
+        <v>375</v>
+      </c>
+      <c r="D5" s="21">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="E5" s="10">
         <v>0.4</v>
@@ -1529,11 +1440,11 @@
       </c>
       <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="D6" s="11">
+        <v>1125</v>
+      </c>
+      <c r="D6" s="21">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>562.5</v>
       </c>
       <c r="E6" s="10">
         <v>0.5</v>
@@ -1548,11 +1459,11 @@
       </c>
       <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D7" s="11">
+        <v>750</v>
+      </c>
+      <c r="D7" s="21">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E7" s="10">
         <v>0.4</v>
@@ -1567,11 +1478,11 @@
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D8" s="11">
+        <v>750</v>
+      </c>
+      <c r="D8" s="21">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>450</v>
       </c>
       <c r="E8" s="10">
         <v>0.6</v>
@@ -1586,11 +1497,11 @@
       </c>
       <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="D9" s="11">
+        <v>1125</v>
+      </c>
+      <c r="D9" s="21">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>337.5</v>
       </c>
       <c r="E9" s="10">
         <v>0.3</v>
@@ -1609,152 +1520,152 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="14">
+      <c r="A1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="13">
         <v>21</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="13">
         <v>22</v>
       </c>
-      <c r="D1" s="14">
+      <c r="D1" s="13">
         <v>23</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="13">
         <v>24</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="C2" s="2">
-        <v>110</v>
+        <v>3300</v>
       </c>
       <c r="D2" s="2">
-        <v>80</v>
+        <v>2400</v>
       </c>
       <c r="E2" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="F2" s="2">
-        <v>170</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>150</v>
+        <v>4500</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="D3" s="2">
-        <v>120</v>
+        <v>3600</v>
       </c>
       <c r="E3" s="2">
-        <v>80</v>
+        <v>2400</v>
       </c>
       <c r="F3" s="2">
-        <v>150</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="C4" s="2">
-        <v>140</v>
+        <v>4200</v>
       </c>
       <c r="D4" s="2">
-        <v>140</v>
+        <v>4200</v>
       </c>
       <c r="E4" s="2">
-        <v>190</v>
+        <v>5700</v>
       </c>
       <c r="F4" s="2">
-        <v>130</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>180</v>
+        <v>5400</v>
       </c>
       <c r="C5" s="2">
-        <v>160</v>
+        <v>4800</v>
       </c>
       <c r="D5" s="2">
-        <v>70</v>
+        <v>2100</v>
       </c>
       <c r="E5" s="2">
-        <v>140</v>
+        <v>4200</v>
       </c>
       <c r="F5" s="2">
-        <v>110</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>70</v>
+        <v>2100</v>
       </c>
       <c r="C6" s="2">
-        <v>170</v>
+        <v>5100</v>
       </c>
       <c r="D6" s="2">
-        <v>150</v>
+        <v>4500</v>
       </c>
       <c r="E6" s="2">
-        <v>110</v>
+        <v>3300</v>
       </c>
       <c r="F6" s="2">
-        <v>80</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>150</v>
+        <v>4500</v>
       </c>
       <c r="C7" s="2">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D7" s="2">
-        <v>140</v>
+        <v>4200</v>
       </c>
       <c r="E7" s="2">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="2">
-        <v>150</v>
+        <v>4500</v>
       </c>
     </row>
   </sheetData>
@@ -1785,7 +1696,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -2101,7 +2012,9 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2111,72 +2024,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12">
         <v>2</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="12">
         <v>3</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>4</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="12">
         <v>5</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="12">
         <v>6</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="12">
         <v>7</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="12">
         <v>8</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="12">
         <v>9</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>21</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>15</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>39</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>39</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>41</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>54</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>115</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>25</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>45</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>48</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>68</v>
       </c>
       <c r="N2" s="2"/>
@@ -2185,37 +2098,37 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>22</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>32</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>45</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>55</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>13</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>61</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>85</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>29</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>85</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>36</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>54</v>
       </c>
       <c r="N3" s="2"/>
@@ -2224,37 +2137,37 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>23</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>65</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>90</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>41</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>52</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>123</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>19</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>57</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>62</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>58</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>78</v>
       </c>
       <c r="N4" s="2"/>
@@ -2263,37 +2176,37 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>24</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>44</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>60</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>37</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>64</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>82</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>78</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>39</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>12</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>95</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>31</v>
       </c>
       <c r="N5" s="2"/>
@@ -2302,37 +2215,37 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>25</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>60</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>82</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>37</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>78</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>112</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>55</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>53</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>45</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <v>21</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>125</v>
       </c>
       <c r="N6" s="2"/>
@@ -2347,55 +2260,55 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="11"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="11"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="11"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="11"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2423,81 +2336,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12">
         <v>2</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="12">
         <v>3</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>4</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="12">
         <v>5</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="12">
         <v>6</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="12">
         <v>7</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="12">
         <v>8</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="12">
         <v>9</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>21</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <f>1.2*CIF1sf!B2</f>
         <v>18</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <f>1.2*CIF1sf!C2</f>
         <v>46.8</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <f>1.2*CIF1sf!D2</f>
         <v>46.8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <f>1.2*CIF1sf!E2</f>
         <v>49.199999999999996</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <f>1.2*CIF1sf!F2</f>
         <v>64.8</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <f>1.2*CIF1sf!G2</f>
         <v>138</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <f>1.2*CIF1sf!H2</f>
         <v>30</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <f>1.2*CIF1sf!I2</f>
         <v>54</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <f>1.2*CIF1sf!J2</f>
         <v>57.599999999999994</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <f>1.2*CIF1sf!K2</f>
         <v>81.599999999999994</v>
       </c>
@@ -2507,46 +2420,46 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>22</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f>1.2*CIF1sf!B3</f>
         <v>38.4</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f>1.2*CIF1sf!C3</f>
         <v>54</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>1.2*CIF1sf!D3</f>
         <v>66</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <f>1.2*CIF1sf!E3</f>
         <v>15.6</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f>1.2*CIF1sf!F3</f>
         <v>73.2</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <f>1.2*CIF1sf!G3</f>
         <v>102</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>1.2*CIF1sf!H3</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <f>1.2*CIF1sf!I3</f>
         <v>102</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <f>1.2*CIF1sf!J3</f>
         <v>43.199999999999996</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <f>1.2*CIF1sf!K3</f>
         <v>64.8</v>
       </c>
@@ -2556,46 +2469,46 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>23</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <f>1.2*CIF1sf!B4</f>
         <v>78</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f>1.2*CIF1sf!C4</f>
         <v>108</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f>1.2*CIF1sf!D4</f>
         <v>49.199999999999996</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <f>1.2*CIF1sf!E4</f>
         <v>62.4</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>1.2*CIF1sf!F4</f>
         <v>147.6</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>1.2*CIF1sf!G4</f>
         <v>22.8</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f>1.2*CIF1sf!H4</f>
         <v>68.399999999999991</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f>1.2*CIF1sf!I4</f>
         <v>74.399999999999991</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f>1.2*CIF1sf!J4</f>
         <v>69.599999999999994</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f>1.2*CIF1sf!K4</f>
         <v>93.6</v>
       </c>
@@ -2605,46 +2518,46 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>24</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <f>1.2*CIF1sf!B5</f>
         <v>52.8</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f>1.2*CIF1sf!C5</f>
         <v>72</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f>1.2*CIF1sf!D5</f>
         <v>44.4</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f>1.2*CIF1sf!E5</f>
         <v>76.8</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>1.2*CIF1sf!F5</f>
         <v>98.399999999999991</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <f>1.2*CIF1sf!G5</f>
         <v>93.6</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f>1.2*CIF1sf!H5</f>
         <v>46.8</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f>1.2*CIF1sf!I5</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <f>1.2*CIF1sf!J5</f>
         <v>114</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <f>1.2*CIF1sf!K5</f>
         <v>37.199999999999996</v>
       </c>
@@ -2654,46 +2567,46 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>25</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <f>1.2*CIF1sf!B6</f>
         <v>72</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f>1.2*CIF1sf!C6</f>
         <v>98.399999999999991</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f>1.2*CIF1sf!D6</f>
         <v>44.4</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f>1.2*CIF1sf!E6</f>
         <v>93.6</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f>1.2*CIF1sf!F6</f>
         <v>134.4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <f>1.2*CIF1sf!G6</f>
         <v>66</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f>1.2*CIF1sf!H6</f>
         <v>63.599999999999994</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <f>1.2*CIF1sf!I6</f>
         <v>54</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f>1.2*CIF1sf!J6</f>
         <v>25.2</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f>1.2*CIF1sf!K6</f>
         <v>150</v>
       </c>
@@ -2709,55 +2622,55 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="11"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="11"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="11"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="11"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2785,81 +2698,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12">
         <v>2</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="12">
         <v>3</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>4</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="12">
         <v>5</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="12">
         <v>6</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="12">
         <v>7</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="12">
         <v>8</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="12">
         <v>9</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>21</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <f>0.8*CIF1sf!B2</f>
         <v>12</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <f>0.8*CIF1sf!C2</f>
         <v>31.200000000000003</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <f>0.8*CIF1sf!D2</f>
         <v>31.200000000000003</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <f>0.8*CIF1sf!E2</f>
         <v>32.800000000000004</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <f>0.8*CIF1sf!F2</f>
         <v>43.2</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <f>0.8*CIF1sf!G2</f>
         <v>92</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <f>0.8*CIF1sf!H2</f>
         <v>20</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <f>0.8*CIF1sf!I2</f>
         <v>36</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <f>0.8*CIF1sf!J2</f>
         <v>38.400000000000006</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <f>0.8*CIF1sf!K2</f>
         <v>54.400000000000006</v>
       </c>
@@ -2869,46 +2782,46 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>22</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f>0.8*CIF1sf!B3</f>
         <v>25.6</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f>0.8*CIF1sf!C3</f>
         <v>36</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>0.8*CIF1sf!D3</f>
         <v>44</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <f>0.8*CIF1sf!E3</f>
         <v>10.4</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f>0.8*CIF1sf!F3</f>
         <v>48.800000000000004</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <f>0.8*CIF1sf!G3</f>
         <v>68</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>0.8*CIF1sf!H3</f>
         <v>23.200000000000003</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <f>0.8*CIF1sf!I3</f>
         <v>68</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <f>0.8*CIF1sf!J3</f>
         <v>28.8</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <f>0.8*CIF1sf!K3</f>
         <v>43.2</v>
       </c>
@@ -2918,46 +2831,46 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>23</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <f>0.8*CIF1sf!B4</f>
         <v>52</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f>0.8*CIF1sf!C4</f>
         <v>72</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f>0.8*CIF1sf!D4</f>
         <v>32.800000000000004</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <f>0.8*CIF1sf!E4</f>
         <v>41.6</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>0.8*CIF1sf!F4</f>
         <v>98.4</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>0.8*CIF1sf!G4</f>
         <v>15.200000000000001</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f>0.8*CIF1sf!H4</f>
         <v>45.6</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f>0.8*CIF1sf!I4</f>
         <v>49.6</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f>0.8*CIF1sf!J4</f>
         <v>46.400000000000006</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f>0.8*CIF1sf!K4</f>
         <v>62.400000000000006</v>
       </c>
@@ -2967,46 +2880,46 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>24</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <f>0.8*CIF1sf!B5</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f>0.8*CIF1sf!C5</f>
         <v>48</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f>0.8*CIF1sf!D5</f>
         <v>29.6</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f>0.8*CIF1sf!E5</f>
         <v>51.2</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>0.8*CIF1sf!F5</f>
         <v>65.600000000000009</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <f>0.8*CIF1sf!G5</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f>0.8*CIF1sf!H5</f>
         <v>31.200000000000003</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f>0.8*CIF1sf!I5</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <f>0.8*CIF1sf!J5</f>
         <v>76</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <f>0.8*CIF1sf!K5</f>
         <v>24.8</v>
       </c>
@@ -3016,46 +2929,46 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>25</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <f>0.8*CIF1sf!B6</f>
         <v>48</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f>0.8*CIF1sf!C6</f>
         <v>65.600000000000009</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f>0.8*CIF1sf!D6</f>
         <v>29.6</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f>0.8*CIF1sf!E6</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f>0.8*CIF1sf!F6</f>
         <v>89.600000000000009</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <f>0.8*CIF1sf!G6</f>
         <v>44</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f>0.8*CIF1sf!H6</f>
         <v>42.400000000000006</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <f>0.8*CIF1sf!I6</f>
         <v>36</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f>0.8*CIF1sf!J6</f>
         <v>16.8</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f>0.8*CIF1sf!K6</f>
         <v>100</v>
       </c>
@@ -3071,55 +2984,55 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="11"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="11"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="11"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="11"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3147,81 +3060,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12">
         <v>2</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="12">
         <v>3</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>4</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="12">
         <v>5</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="12">
         <v>6</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="12">
         <v>7</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="12">
         <v>8</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="12">
         <v>9</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>21</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <f>1.5*CIF1sf!B2</f>
         <v>22.5</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <f>1.5*CIF1sf!C2</f>
         <v>58.5</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <f>1.5*CIF1sf!D2</f>
         <v>58.5</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <f>1.5*CIF1sf!E2</f>
         <v>61.5</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <f>1.5*CIF1sf!F2</f>
         <v>81</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <f>1.5*CIF1sf!G2</f>
         <v>172.5</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <f>1.5*CIF1sf!H2</f>
         <v>37.5</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <f>1.5*CIF1sf!I2</f>
         <v>67.5</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <f>1.5*CIF1sf!J2</f>
         <v>72</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <f>1.5*CIF1sf!K2</f>
         <v>102</v>
       </c>
@@ -3231,46 +3144,46 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>22</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f>1.5*CIF1sf!B3</f>
         <v>48</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f>1.5*CIF1sf!C3</f>
         <v>67.5</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>1.5*CIF1sf!D3</f>
         <v>82.5</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <f>1.5*CIF1sf!E3</f>
         <v>19.5</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f>1.5*CIF1sf!F3</f>
         <v>91.5</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <f>1.5*CIF1sf!G3</f>
         <v>127.5</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>1.5*CIF1sf!H3</f>
         <v>43.5</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <f>1.5*CIF1sf!I3</f>
         <v>127.5</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <f>1.5*CIF1sf!J3</f>
         <v>54</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <f>1.5*CIF1sf!K3</f>
         <v>81</v>
       </c>
@@ -3280,46 +3193,46 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>23</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <f>1.5*CIF1sf!B4</f>
         <v>97.5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f>1.5*CIF1sf!C4</f>
         <v>135</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f>1.5*CIF1sf!D4</f>
         <v>61.5</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <f>1.5*CIF1sf!E4</f>
         <v>78</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>1.5*CIF1sf!F4</f>
         <v>184.5</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>1.5*CIF1sf!G4</f>
         <v>28.5</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f>1.5*CIF1sf!H4</f>
         <v>85.5</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f>1.5*CIF1sf!I4</f>
         <v>93</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f>1.5*CIF1sf!J4</f>
         <v>87</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f>1.5*CIF1sf!K4</f>
         <v>117</v>
       </c>
@@ -3329,46 +3242,46 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>24</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <f>1.5*CIF1sf!B5</f>
         <v>66</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f>1.5*CIF1sf!C5</f>
         <v>90</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f>1.5*CIF1sf!D5</f>
         <v>55.5</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f>1.5*CIF1sf!E5</f>
         <v>96</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>1.5*CIF1sf!F5</f>
         <v>123</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <f>1.5*CIF1sf!G5</f>
         <v>117</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f>1.5*CIF1sf!H5</f>
         <v>58.5</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f>1.5*CIF1sf!I5</f>
         <v>18</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <f>1.5*CIF1sf!J5</f>
         <v>142.5</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <f>1.5*CIF1sf!K5</f>
         <v>46.5</v>
       </c>
@@ -3378,46 +3291,46 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>25</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <f>1.5*CIF1sf!B6</f>
         <v>90</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f>1.5*CIF1sf!C6</f>
         <v>123</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f>1.5*CIF1sf!D6</f>
         <v>55.5</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f>1.5*CIF1sf!E6</f>
         <v>117</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f>1.5*CIF1sf!F6</f>
         <v>168</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <f>1.5*CIF1sf!G6</f>
         <v>82.5</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f>1.5*CIF1sf!H6</f>
         <v>79.5</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <f>1.5*CIF1sf!I6</f>
         <v>67.5</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f>1.5*CIF1sf!J6</f>
         <v>31.5</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f>1.5*CIF1sf!K6</f>
         <v>187.5</v>
       </c>
@@ -3433,55 +3346,55 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="11"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="11"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="11"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="11"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3511,387 +3424,387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12">
+        <v>11</v>
+      </c>
+      <c r="C1" s="12">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12">
+        <v>13</v>
+      </c>
+      <c r="E1" s="12">
+        <v>14</v>
+      </c>
+      <c r="F1" s="12">
+        <v>15</v>
+      </c>
+      <c r="G1" s="12">
+        <v>16</v>
+      </c>
+      <c r="H1" s="12">
+        <v>17</v>
+      </c>
+      <c r="I1" s="12">
+        <v>18</v>
+      </c>
+      <c r="J1" s="12">
+        <v>19</v>
+      </c>
+      <c r="K1" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15">
+        <v>23</v>
+      </c>
+      <c r="E2" s="15">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15">
+        <v>39</v>
+      </c>
+      <c r="G2" s="15">
+        <v>18</v>
+      </c>
+      <c r="H2" s="15">
+        <v>25</v>
+      </c>
+      <c r="I2" s="15">
+        <v>35</v>
+      </c>
+      <c r="J2" s="15">
+        <v>41</v>
+      </c>
+      <c r="K2" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>38</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>25</v>
+      </c>
+      <c r="E3" s="15">
+        <v>9</v>
+      </c>
+      <c r="F3" s="15">
+        <v>27</v>
+      </c>
+      <c r="G3" s="15">
+        <v>35</v>
+      </c>
+      <c r="H3" s="15">
+        <v>45</v>
+      </c>
+      <c r="I3" s="15">
+        <v>26</v>
+      </c>
+      <c r="J3" s="15">
+        <v>15</v>
+      </c>
+      <c r="K3" s="15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
         <v>28</v>
       </c>
-      <c r="B1" s="13">
+      <c r="C4" s="15">
+        <v>39</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>31</v>
+      </c>
+      <c r="F4" s="15">
+        <v>15</v>
+      </c>
+      <c r="G4" s="15">
+        <v>48</v>
+      </c>
+      <c r="H4" s="15">
+        <v>38</v>
+      </c>
+      <c r="I4" s="15">
+        <v>17</v>
+      </c>
+      <c r="J4" s="15">
+        <v>25</v>
+      </c>
+      <c r="K4" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>25</v>
+      </c>
+      <c r="C5" s="15">
+        <v>23</v>
+      </c>
+      <c r="D5" s="15">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>25</v>
+      </c>
+      <c r="G5" s="15">
+        <v>41</v>
+      </c>
+      <c r="H5" s="15">
+        <v>28</v>
+      </c>
+      <c r="I5" s="15">
+        <v>33</v>
+      </c>
+      <c r="J5" s="15">
+        <v>24</v>
+      </c>
+      <c r="K5" s="15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>28</v>
+      </c>
+      <c r="C6" s="15">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15">
+        <v>34</v>
+      </c>
+      <c r="E6" s="15">
+        <v>12</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>38</v>
+      </c>
+      <c r="H6" s="15">
+        <v>15</v>
+      </c>
+      <c r="I6" s="15">
+        <v>38</v>
+      </c>
+      <c r="J6" s="15">
+        <v>14</v>
+      </c>
+      <c r="K6" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15">
+        <v>45</v>
+      </c>
+      <c r="F7" s="15">
+        <v>48</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>23</v>
+      </c>
+      <c r="I7" s="15">
+        <v>28</v>
+      </c>
+      <c r="J7" s="15">
+        <v>8</v>
+      </c>
+      <c r="K7" s="15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15">
+        <v>24</v>
+      </c>
+      <c r="E8" s="15">
+        <v>33</v>
+      </c>
+      <c r="F8" s="15">
         <v>11</v>
       </c>
-      <c r="C1" s="13">
-        <v>12</v>
-      </c>
-      <c r="D1" s="13">
-        <v>13</v>
-      </c>
-      <c r="E1" s="13">
+      <c r="G8" s="15">
+        <v>17</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>39</v>
+      </c>
+      <c r="J8" s="15">
+        <v>38</v>
+      </c>
+      <c r="K8" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>25</v>
+      </c>
+      <c r="C9" s="15">
+        <v>52</v>
+      </c>
+      <c r="D9" s="15">
+        <v>17</v>
+      </c>
+      <c r="E9" s="15">
+        <v>38</v>
+      </c>
+      <c r="F9" s="15">
         <v>14</v>
       </c>
-      <c r="F1" s="13">
+      <c r="G9" s="15">
+        <v>45</v>
+      </c>
+      <c r="H9" s="15">
+        <v>18</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>32</v>
+      </c>
+      <c r="K9" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>41</v>
+      </c>
+      <c r="C10" s="15">
+        <v>33</v>
+      </c>
+      <c r="D10" s="15">
+        <v>45</v>
+      </c>
+      <c r="E10" s="15">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15">
+        <v>23</v>
+      </c>
+      <c r="G10" s="15">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15">
+        <v>34</v>
+      </c>
+      <c r="I10" s="15">
+        <v>51</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
         <v>15</v>
       </c>
-      <c r="G1" s="13">
-        <v>16</v>
-      </c>
-      <c r="H1" s="13">
-        <v>17</v>
-      </c>
-      <c r="I1" s="13">
-        <v>18</v>
-      </c>
-      <c r="J1" s="13">
-        <v>19</v>
-      </c>
-      <c r="K1" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
-        <v>13</v>
-      </c>
-      <c r="D2" s="16">
-        <v>23</v>
-      </c>
-      <c r="E2" s="16">
-        <v>37</v>
-      </c>
-      <c r="F2" s="16">
-        <v>39</v>
-      </c>
-      <c r="G2" s="16">
-        <v>18</v>
-      </c>
-      <c r="H2" s="16">
-        <v>25</v>
-      </c>
-      <c r="I2" s="16">
-        <v>35</v>
-      </c>
-      <c r="J2" s="16">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>38</v>
+      </c>
+      <c r="C11" s="15">
+        <v>27</v>
+      </c>
+      <c r="D11" s="15">
+        <v>44</v>
+      </c>
+      <c r="E11" s="15">
+        <v>14</v>
+      </c>
+      <c r="F11" s="15">
+        <v>56</v>
+      </c>
+      <c r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15">
         <v>41</v>
       </c>
-      <c r="K2" s="16">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="I11" s="15">
         <v>38</v>
       </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <v>25</v>
-      </c>
-      <c r="E3" s="16">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16">
-        <v>27</v>
-      </c>
-      <c r="G3" s="16">
-        <v>35</v>
-      </c>
-      <c r="H3" s="16">
-        <v>45</v>
-      </c>
-      <c r="I3" s="16">
-        <v>26</v>
-      </c>
-      <c r="J3" s="16">
-        <v>15</v>
-      </c>
-      <c r="K3" s="16">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
-        <v>28</v>
-      </c>
-      <c r="C4" s="16">
-        <v>39</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>31</v>
-      </c>
-      <c r="F4" s="16">
-        <v>15</v>
-      </c>
-      <c r="G4" s="16">
-        <v>48</v>
-      </c>
-      <c r="H4" s="16">
-        <v>38</v>
-      </c>
-      <c r="I4" s="16">
-        <v>17</v>
-      </c>
-      <c r="J4" s="16">
-        <v>25</v>
-      </c>
-      <c r="K4" s="16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16">
-        <v>25</v>
-      </c>
-      <c r="C5" s="16">
-        <v>23</v>
-      </c>
-      <c r="D5" s="16">
-        <v>27</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>25</v>
-      </c>
-      <c r="G5" s="16">
-        <v>41</v>
-      </c>
-      <c r="H5" s="16">
-        <v>28</v>
-      </c>
-      <c r="I5" s="16">
-        <v>33</v>
-      </c>
-      <c r="J5" s="16">
-        <v>24</v>
-      </c>
-      <c r="K5" s="16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16">
-        <v>28</v>
-      </c>
-      <c r="C6" s="16">
-        <v>25</v>
-      </c>
-      <c r="D6" s="16">
-        <v>34</v>
-      </c>
-      <c r="E6" s="16">
-        <v>12</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>38</v>
-      </c>
-      <c r="H6" s="16">
-        <v>15</v>
-      </c>
-      <c r="I6" s="16">
-        <v>38</v>
-      </c>
-      <c r="J6" s="16">
-        <v>14</v>
-      </c>
-      <c r="K6" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16">
-        <v>13</v>
-      </c>
-      <c r="C7" s="16">
-        <v>25</v>
-      </c>
-      <c r="D7" s="16">
-        <v>14</v>
-      </c>
-      <c r="E7" s="16">
-        <v>45</v>
-      </c>
-      <c r="F7" s="16">
-        <v>48</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>23</v>
-      </c>
-      <c r="I7" s="16">
-        <v>28</v>
-      </c>
-      <c r="J7" s="16">
-        <v>8</v>
-      </c>
-      <c r="K7" s="16">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16">
-        <v>15</v>
-      </c>
-      <c r="C8" s="16">
-        <v>8</v>
-      </c>
-      <c r="D8" s="16">
-        <v>24</v>
-      </c>
-      <c r="E8" s="16">
-        <v>33</v>
-      </c>
-      <c r="F8" s="16">
-        <v>11</v>
-      </c>
-      <c r="G8" s="16">
-        <v>17</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>39</v>
-      </c>
-      <c r="J8" s="16">
-        <v>38</v>
-      </c>
-      <c r="K8" s="16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16">
-        <v>25</v>
-      </c>
-      <c r="C9" s="16">
-        <v>52</v>
-      </c>
-      <c r="D9" s="16">
-        <v>17</v>
-      </c>
-      <c r="E9" s="16">
-        <v>38</v>
-      </c>
-      <c r="F9" s="16">
-        <v>14</v>
-      </c>
-      <c r="G9" s="16">
-        <v>45</v>
-      </c>
-      <c r="H9" s="16">
-        <v>18</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>32</v>
-      </c>
-      <c r="K9" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16">
-        <v>41</v>
-      </c>
-      <c r="C10" s="16">
-        <v>33</v>
-      </c>
-      <c r="D10" s="16">
-        <v>45</v>
-      </c>
-      <c r="E10" s="16">
-        <v>22</v>
-      </c>
-      <c r="F10" s="16">
-        <v>23</v>
-      </c>
-      <c r="G10" s="16">
-        <v>24</v>
-      </c>
-      <c r="H10" s="16">
-        <v>34</v>
-      </c>
-      <c r="I10" s="16">
-        <v>51</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16">
-        <v>38</v>
-      </c>
-      <c r="C11" s="16">
-        <v>27</v>
-      </c>
-      <c r="D11" s="16">
-        <v>44</v>
-      </c>
-      <c r="E11" s="16">
-        <v>14</v>
-      </c>
-      <c r="F11" s="16">
-        <v>56</v>
-      </c>
-      <c r="G11" s="16">
-        <v>26</v>
-      </c>
-      <c r="H11" s="16">
-        <v>41</v>
-      </c>
-      <c r="I11" s="16">
-        <v>38</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>43</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3919,81 +3832,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12">
         <v>2</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="12">
         <v>3</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>4</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="12">
         <v>5</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="12">
         <v>6</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="12">
         <v>7</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="12">
         <v>8</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="12">
         <v>9</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>21</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <f>0.4*CIF1sf!B2</f>
         <v>6</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <f>0.4*CIF1sf!C2</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <f>0.4*CIF1sf!D2</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <f>0.4*CIF1sf!E2</f>
         <v>16.400000000000002</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <f>0.4*CIF1sf!F2</f>
         <v>21.6</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <f>0.4*CIF1sf!G2</f>
         <v>46</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <f>0.4*CIF1sf!H2</f>
         <v>10</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <f>0.4*CIF1sf!I2</f>
         <v>18</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <f>0.4*CIF1sf!J2</f>
         <v>19.200000000000003</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <f>0.4*CIF1sf!K2</f>
         <v>27.200000000000003</v>
       </c>
@@ -4003,46 +3916,46 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>22</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f>0.4*CIF1sf!B3</f>
         <v>12.8</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f>0.4*CIF1sf!C3</f>
         <v>18</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>0.4*CIF1sf!D3</f>
         <v>22</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <f>0.4*CIF1sf!E3</f>
         <v>5.2</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f>0.4*CIF1sf!F3</f>
         <v>24.400000000000002</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <f>0.4*CIF1sf!G3</f>
         <v>34</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>0.4*CIF1sf!H3</f>
         <v>11.600000000000001</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <f>0.4*CIF1sf!I3</f>
         <v>34</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <f>0.4*CIF1sf!J3</f>
         <v>14.4</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <f>0.4*CIF1sf!K3</f>
         <v>21.6</v>
       </c>
@@ -4052,46 +3965,46 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>23</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <f>0.4*CIF1sf!B4</f>
         <v>26</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f>0.4*CIF1sf!C4</f>
         <v>36</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f>0.4*CIF1sf!D4</f>
         <v>16.400000000000002</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <f>0.4*CIF1sf!E4</f>
         <v>20.8</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>0.4*CIF1sf!F4</f>
         <v>49.2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>0.4*CIF1sf!G4</f>
         <v>7.6000000000000005</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f>0.4*CIF1sf!H4</f>
         <v>22.8</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f>0.4*CIF1sf!I4</f>
         <v>24.8</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f>0.4*CIF1sf!J4</f>
         <v>23.200000000000003</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f>0.4*CIF1sf!K4</f>
         <v>31.200000000000003</v>
       </c>
@@ -4101,46 +4014,46 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>24</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <f>0.4*CIF1sf!B5</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f>0.4*CIF1sf!C5</f>
         <v>24</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f>0.4*CIF1sf!D5</f>
         <v>14.8</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f>0.4*CIF1sf!E5</f>
         <v>25.6</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>0.4*CIF1sf!F5</f>
         <v>32.800000000000004</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <f>0.4*CIF1sf!G5</f>
         <v>31.200000000000003</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f>0.4*CIF1sf!H5</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f>0.4*CIF1sf!I5</f>
         <v>4.8000000000000007</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <f>0.4*CIF1sf!J5</f>
         <v>38</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <f>0.4*CIF1sf!K5</f>
         <v>12.4</v>
       </c>
@@ -4150,46 +4063,46 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>25</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <f>0.4*CIF1sf!B6</f>
         <v>24</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f>0.4*CIF1sf!C6</f>
         <v>32.800000000000004</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f>0.4*CIF1sf!D6</f>
         <v>14.8</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f>0.4*CIF1sf!E6</f>
         <v>31.200000000000003</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f>0.4*CIF1sf!F6</f>
         <v>44.800000000000004</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <f>0.4*CIF1sf!G6</f>
         <v>22</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f>0.4*CIF1sf!H6</f>
         <v>21.200000000000003</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <f>0.4*CIF1sf!I6</f>
         <v>18</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f>0.4*CIF1sf!J6</f>
         <v>8.4</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f>0.4*CIF1sf!K6</f>
         <v>50</v>
       </c>
@@ -4205,55 +4118,55 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="11"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="11"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="11"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="11"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -4271,7 +4184,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4282,7 +4195,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>8</v>
@@ -4290,7 +4203,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -4298,7 +4211,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -4327,81 +4240,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12">
         <v>2</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="12">
         <v>3</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>4</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="12">
         <v>5</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="12">
         <v>6</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="12">
         <v>7</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="12">
         <v>8</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="12">
         <v>9</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>21</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <f>0.8*CIF1sf!B2</f>
         <v>12</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <f>0.8*CIF1sf!C2</f>
         <v>31.200000000000003</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <f>0.8*CIF1sf!D2</f>
         <v>31.200000000000003</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <f>0.8*CIF1sf!E2</f>
         <v>32.800000000000004</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <f>0.8*CIF1sf!F2</f>
         <v>43.2</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <f>0.8*CIF1sf!G2</f>
         <v>92</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <f>0.8*CIF1sf!H2</f>
         <v>20</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <f>0.8*CIF1sf!I2</f>
         <v>36</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <f>0.8*CIF1sf!J2</f>
         <v>38.400000000000006</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <f>0.8*CIF1sf!K2</f>
         <v>54.400000000000006</v>
       </c>
@@ -4411,46 +4324,46 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>22</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f>0.8*CIF1sf!B3</f>
         <v>25.6</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f>0.8*CIF1sf!C3</f>
         <v>36</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>0.8*CIF1sf!D3</f>
         <v>44</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <f>0.8*CIF1sf!E3</f>
         <v>10.4</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f>0.8*CIF1sf!F3</f>
         <v>48.800000000000004</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <f>0.8*CIF1sf!G3</f>
         <v>68</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>0.8*CIF1sf!H3</f>
         <v>23.200000000000003</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <f>0.8*CIF1sf!I3</f>
         <v>68</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <f>0.8*CIF1sf!J3</f>
         <v>28.8</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <f>0.8*CIF1sf!K3</f>
         <v>43.2</v>
       </c>
@@ -4460,46 +4373,46 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>23</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <f>0.8*CIF1sf!B4</f>
         <v>52</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f>0.8*CIF1sf!C4</f>
         <v>72</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f>0.8*CIF1sf!D4</f>
         <v>32.800000000000004</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <f>0.8*CIF1sf!E4</f>
         <v>41.6</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>0.8*CIF1sf!F4</f>
         <v>98.4</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>0.8*CIF1sf!G4</f>
         <v>15.200000000000001</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f>0.8*CIF1sf!H4</f>
         <v>45.6</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f>0.8*CIF1sf!I4</f>
         <v>49.6</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f>0.8*CIF1sf!J4</f>
         <v>46.400000000000006</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f>0.8*CIF1sf!K4</f>
         <v>62.400000000000006</v>
       </c>
@@ -4509,46 +4422,46 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>24</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <f>0.8*CIF1sf!B5</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f>0.8*CIF1sf!C5</f>
         <v>48</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f>0.8*CIF1sf!D5</f>
         <v>29.6</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f>0.8*CIF1sf!E5</f>
         <v>51.2</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>0.8*CIF1sf!F5</f>
         <v>65.600000000000009</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <f>0.8*CIF1sf!G5</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f>0.8*CIF1sf!H5</f>
         <v>31.200000000000003</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f>0.8*CIF1sf!I5</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <f>0.8*CIF1sf!J5</f>
         <v>76</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <f>0.8*CIF1sf!K5</f>
         <v>24.8</v>
       </c>
@@ -4558,46 +4471,46 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>25</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <f>0.8*CIF1sf!B6</f>
         <v>48</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f>0.8*CIF1sf!C6</f>
         <v>65.600000000000009</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f>0.8*CIF1sf!D6</f>
         <v>29.6</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f>0.8*CIF1sf!E6</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f>0.8*CIF1sf!F6</f>
         <v>89.600000000000009</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <f>0.8*CIF1sf!G6</f>
         <v>44</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f>0.8*CIF1sf!H6</f>
         <v>42.400000000000006</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <f>0.8*CIF1sf!I6</f>
         <v>36</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f>0.8*CIF1sf!J6</f>
         <v>16.8</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f>0.8*CIF1sf!K6</f>
         <v>100</v>
       </c>
@@ -4613,55 +4526,55 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="11"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="11"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="11"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="11"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -4680,83 +4593,83 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="14"/>
+    <col min="1" max="1" width="11.5546875" style="13"/>
     <col min="2" max="21" width="8.77734375" style="2" customWidth="1"/>
     <col min="22" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13">
+        <v>12</v>
+      </c>
+      <c r="N1" s="13">
+        <v>13</v>
+      </c>
+      <c r="O1" s="13">
+        <v>14</v>
+      </c>
+      <c r="P1" s="13">
         <v>15</v>
       </c>
-      <c r="B1" s="14">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14">
-        <v>5</v>
-      </c>
-      <c r="G1" s="14">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14">
-        <v>7</v>
-      </c>
-      <c r="I1" s="14">
-        <v>8</v>
-      </c>
-      <c r="J1" s="14">
-        <v>9</v>
-      </c>
-      <c r="K1" s="14">
-        <v>10</v>
-      </c>
-      <c r="L1" s="14">
-        <v>11</v>
-      </c>
-      <c r="M1" s="14">
-        <v>12</v>
-      </c>
-      <c r="N1" s="14">
-        <v>13</v>
-      </c>
-      <c r="O1" s="14">
-        <v>14</v>
-      </c>
-      <c r="P1" s="14">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="14">
+      <c r="Q1" s="13">
         <v>16</v>
       </c>
-      <c r="R1" s="14">
+      <c r="R1" s="13">
         <v>17</v>
       </c>
-      <c r="S1" s="14">
+      <c r="S1" s="13">
         <v>18</v>
       </c>
-      <c r="T1" s="14">
+      <c r="T1" s="13">
         <v>19</v>
       </c>
-      <c r="U1" s="14">
+      <c r="U1" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -4821,7 +4734,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -4886,7 +4799,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -4951,7 +4864,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -5016,7 +4929,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -5081,7 +4994,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -5146,7 +5059,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -5211,7 +5124,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="2">
@@ -5276,7 +5189,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -5341,7 +5254,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -5406,7 +5319,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>21</v>
       </c>
       <c r="B12" s="2">
@@ -5471,7 +5384,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>22</v>
       </c>
       <c r="B13" s="2">
@@ -5536,7 +5449,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>23</v>
       </c>
       <c r="B14" s="2">
@@ -5601,7 +5514,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>24</v>
       </c>
       <c r="B15" s="2">
@@ -5666,7 +5579,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>25</v>
       </c>
       <c r="B16" s="2">
@@ -5762,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -9620,10 +9533,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9640,10 +9553,10 @@
         <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -9651,37 +9564,45 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <f>15*12</f>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="18">
-        <v>300000000</v>
+        <v>50</v>
+      </c>
+      <c r="B3" s="17">
+        <v>350000000</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="18">
-        <v>50000000</v>
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
